--- a/data/covid_panama_new.xlsx
+++ b/data/covid_panama_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmlemus/covid19/covid19-panama/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B8DFA3-A035-004D-9676-011195CD7110}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D5ECCC-B23F-164A-9F91-8B2676846441}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CE17F0A9-EE9F-7F40-AD90-5984D200C7B1}"/>
   </bookViews>
@@ -125,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,11 +161,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +190,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B195D63B-8D96-B24C-BDA4-64FADF9A87BE}">
-  <dimension ref="A1:L307"/>
+  <dimension ref="A1:L308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="M308" sqref="M308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12084,19 +12096,19 @@
         <v>132748</v>
       </c>
       <c r="I258" s="3">
-        <f t="shared" ref="I258:I321" si="31">D258-F258-H258</f>
+        <f t="shared" ref="I258:I308" si="31">D258-F258-H258</f>
         <v>16609</v>
       </c>
       <c r="J258" s="5">
-        <f t="shared" ref="J258:J307" si="32">F258/D258</f>
+        <f t="shared" ref="J258:J308" si="32">F258/D258</f>
         <v>1.92528679024749E-2</v>
       </c>
       <c r="K258" s="6">
-        <f t="shared" ref="K258:K307" si="33">H258/D258</f>
+        <f t="shared" ref="K258:K308" si="33">H258/D258</f>
         <v>0.87168475727071559</v>
       </c>
       <c r="L258" s="6">
-        <f t="shared" ref="L258:L307" si="34">C258/B258</f>
+        <f t="shared" ref="L258:L308" si="34">C258/B258</f>
         <v>0.12179031766974525</v>
       </c>
     </row>
@@ -13638,7 +13650,7 @@
         <v>11380</v>
       </c>
       <c r="C293" s="9">
-        <f t="shared" ref="C293:C356" si="37">D293-D292</f>
+        <f t="shared" ref="C293:C307" si="37">D293-D292</f>
         <v>2986</v>
       </c>
       <c r="D293" s="10">
@@ -14300,6 +14312,51 @@
       <c r="L307" s="8">
         <f t="shared" si="34"/>
         <v>0.24403215831787262</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A308" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B308" s="11">
+        <v>16825</v>
+      </c>
+      <c r="C308">
+        <v>3735</v>
+      </c>
+      <c r="D308">
+        <f>D307+C308</f>
+        <v>276772</v>
+      </c>
+      <c r="E308" s="11">
+        <v>43</v>
+      </c>
+      <c r="F308" s="11">
+        <f>F307+E308</f>
+        <v>4406</v>
+      </c>
+      <c r="G308" s="11">
+        <v>2183</v>
+      </c>
+      <c r="H308" s="3">
+        <f>H307+G308</f>
+        <v>217544</v>
+      </c>
+      <c r="I308" s="3">
+        <f t="shared" si="31"/>
+        <v>54822</v>
+      </c>
+      <c r="J308" s="5">
+        <f t="shared" si="32"/>
+        <v>1.5919240385588139E-2</v>
+      </c>
+      <c r="K308" s="6">
+        <f t="shared" si="33"/>
+        <v>0.78600436460335588</v>
+      </c>
+      <c r="L308" s="8">
+        <f t="shared" si="34"/>
+        <v>0.22199108469539375</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid_panama_new.xlsx
+++ b/data/covid_panama_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmlemus/covid19/covid19-panama/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D5ECCC-B23F-164A-9F91-8B2676846441}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24796578-B3B0-4244-9CF4-B4D6DC2A4CD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CE17F0A9-EE9F-7F40-AD90-5984D200C7B1}"/>
   </bookViews>
@@ -125,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,22 +161,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,7 +179,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B195D63B-8D96-B24C-BDA4-64FADF9A87BE}">
-  <dimension ref="A1:L308"/>
+  <dimension ref="A1:L309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="M308" sqref="M308"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12096,19 +12084,19 @@
         <v>132748</v>
       </c>
       <c r="I258" s="3">
-        <f t="shared" ref="I258:I308" si="31">D258-F258-H258</f>
+        <f t="shared" ref="I258:I309" si="31">D258-F258-H258</f>
         <v>16609</v>
       </c>
       <c r="J258" s="5">
-        <f t="shared" ref="J258:J308" si="32">F258/D258</f>
+        <f t="shared" ref="J258:J309" si="32">F258/D258</f>
         <v>1.92528679024749E-2</v>
       </c>
       <c r="K258" s="6">
-        <f t="shared" ref="K258:K308" si="33">H258/D258</f>
+        <f t="shared" ref="K258:K309" si="33">H258/D258</f>
         <v>0.87168475727071559</v>
       </c>
       <c r="L258" s="6">
-        <f t="shared" ref="L258:L308" si="34">C258/B258</f>
+        <f t="shared" ref="L258:L309" si="34">C258/B258</f>
         <v>0.12179031766974525</v>
       </c>
     </row>
@@ -14318,24 +14306,24 @@
       <c r="A308" s="2">
         <v>44205</v>
       </c>
-      <c r="B308" s="11">
+      <c r="B308" s="7">
         <v>16825</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="3">
         <v>3735</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="3">
         <f>D307+C308</f>
         <v>276772</v>
       </c>
-      <c r="E308" s="11">
-        <v>43</v>
-      </c>
-      <c r="F308" s="11">
+      <c r="E308" s="7">
+        <v>47</v>
+      </c>
+      <c r="F308" s="7">
         <f>F307+E308</f>
-        <v>4406</v>
-      </c>
-      <c r="G308" s="11">
+        <v>4410</v>
+      </c>
+      <c r="G308" s="7">
         <v>2183</v>
       </c>
       <c r="H308" s="3">
@@ -14344,11 +14332,11 @@
       </c>
       <c r="I308" s="3">
         <f t="shared" si="31"/>
-        <v>54822</v>
+        <v>54818</v>
       </c>
       <c r="J308" s="5">
         <f t="shared" si="32"/>
-        <v>1.5919240385588139E-2</v>
+        <v>1.5933692714580956E-2</v>
       </c>
       <c r="K308" s="6">
         <f t="shared" si="33"/>
@@ -14357,6 +14345,51 @@
       <c r="L308" s="8">
         <f t="shared" si="34"/>
         <v>0.22199108469539375</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A309" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B309" s="7">
+        <v>10389</v>
+      </c>
+      <c r="C309" s="3">
+        <v>2424</v>
+      </c>
+      <c r="D309" s="3">
+        <f>D308+C309</f>
+        <v>279196</v>
+      </c>
+      <c r="E309" s="7">
+        <v>45</v>
+      </c>
+      <c r="F309" s="7">
+        <f>F308+E309</f>
+        <v>4455</v>
+      </c>
+      <c r="G309" s="7">
+        <v>1600</v>
+      </c>
+      <c r="H309" s="3">
+        <f>H308+G309</f>
+        <v>219144</v>
+      </c>
+      <c r="I309" s="3">
+        <f t="shared" si="31"/>
+        <v>55597</v>
+      </c>
+      <c r="J309" s="5">
+        <f t="shared" si="32"/>
+        <v>1.5956532328543389E-2</v>
+      </c>
+      <c r="K309" s="6">
+        <f t="shared" si="33"/>
+        <v>0.78491095860972215</v>
+      </c>
+      <c r="L309" s="8">
+        <f t="shared" si="34"/>
+        <v>0.23332370776783137</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid_panama_new.xlsx
+++ b/data/covid_panama_new.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmlemus/covid19/covid19-panama/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24796578-B3B0-4244-9CF4-B4D6DC2A4CD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA01E30-E9B7-5643-805D-E3F2819929E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CE17F0A9-EE9F-7F40-AD90-5984D200C7B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B195D63B-8D96-B24C-BDA4-64FADF9A87BE}">
-  <dimension ref="A1:L309"/>
+  <dimension ref="A1:L310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="D309" sqref="D309"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G306" sqref="G306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12084,19 +12084,19 @@
         <v>132748</v>
       </c>
       <c r="I258" s="3">
-        <f t="shared" ref="I258:I309" si="31">D258-F258-H258</f>
+        <f t="shared" ref="I258:I310" si="31">D258-F258-H258</f>
         <v>16609</v>
       </c>
       <c r="J258" s="5">
-        <f t="shared" ref="J258:J309" si="32">F258/D258</f>
+        <f t="shared" ref="J258:J310" si="32">F258/D258</f>
         <v>1.92528679024749E-2</v>
       </c>
       <c r="K258" s="6">
-        <f t="shared" ref="K258:K309" si="33">H258/D258</f>
+        <f t="shared" ref="K258:K310" si="33">H258/D258</f>
         <v>0.87168475727071559</v>
       </c>
       <c r="L258" s="6">
-        <f t="shared" ref="L258:L309" si="34">C258/B258</f>
+        <f t="shared" ref="L258:L310" si="34">C258/B258</f>
         <v>0.12179031766974525</v>
       </c>
     </row>
@@ -14390,6 +14390,51 @@
       <c r="L309" s="8">
         <f t="shared" si="34"/>
         <v>0.23332370776783137</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A310" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B310" s="7">
+        <v>9112</v>
+      </c>
+      <c r="C310" s="3">
+        <v>2157</v>
+      </c>
+      <c r="D310" s="3">
+        <f>D309+C310</f>
+        <v>281353</v>
+      </c>
+      <c r="E310" s="7">
+        <v>45</v>
+      </c>
+      <c r="F310" s="7">
+        <f>F309+E310</f>
+        <v>4500</v>
+      </c>
+      <c r="G310" s="7">
+        <v>1689</v>
+      </c>
+      <c r="H310" s="3">
+        <f>H309+G310</f>
+        <v>220833</v>
+      </c>
+      <c r="I310" s="3">
+        <f t="shared" si="31"/>
+        <v>56020</v>
+      </c>
+      <c r="J310" s="5">
+        <f t="shared" si="32"/>
+        <v>1.5994142589558311E-2</v>
+      </c>
+      <c r="K310" s="6">
+        <f t="shared" si="33"/>
+        <v>0.78489655343998466</v>
+      </c>
+      <c r="L310" s="8">
+        <f t="shared" si="34"/>
+        <v>0.23672080772607551</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid_panama_new.xlsx
+++ b/data/covid_panama_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmlemus/covid19/covid19-panama/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA01E30-E9B7-5643-805D-E3F2819929E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B697FF2-D7CE-084E-B28D-B11D87798603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CE17F0A9-EE9F-7F40-AD90-5984D200C7B1}"/>
   </bookViews>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B195D63B-8D96-B24C-BDA4-64FADF9A87BE}">
-  <dimension ref="A1:L310"/>
+  <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G306" sqref="G306"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="K307" sqref="K307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12084,19 +12084,19 @@
         <v>132748</v>
       </c>
       <c r="I258" s="3">
-        <f t="shared" ref="I258:I310" si="31">D258-F258-H258</f>
+        <f t="shared" ref="I258:I311" si="31">D258-F258-H258</f>
         <v>16609</v>
       </c>
       <c r="J258" s="5">
-        <f t="shared" ref="J258:J310" si="32">F258/D258</f>
+        <f t="shared" ref="J258:J311" si="32">F258/D258</f>
         <v>1.92528679024749E-2</v>
       </c>
       <c r="K258" s="6">
-        <f t="shared" ref="K258:K310" si="33">H258/D258</f>
+        <f t="shared" ref="K258:K311" si="33">H258/D258</f>
         <v>0.87168475727071559</v>
       </c>
       <c r="L258" s="6">
-        <f t="shared" ref="L258:L310" si="34">C258/B258</f>
+        <f t="shared" ref="L258:L311" si="34">C258/B258</f>
         <v>0.12179031766974525</v>
       </c>
     </row>
@@ -14192,7 +14192,7 @@
         <v>2533</v>
       </c>
       <c r="H305" s="3">
-        <f>H304+G305</f>
+        <f t="shared" ref="H305:H311" si="38">H304+G305</f>
         <v>208620</v>
       </c>
       <c r="I305" s="3">
@@ -14237,7 +14237,7 @@
         <v>4036</v>
       </c>
       <c r="H306" s="3">
-        <f>H305+G306</f>
+        <f t="shared" si="38"/>
         <v>212656</v>
       </c>
       <c r="I306" s="3">
@@ -14282,7 +14282,7 @@
         <v>2705</v>
       </c>
       <c r="H307" s="3">
-        <f>H306+G307</f>
+        <f t="shared" si="38"/>
         <v>215361</v>
       </c>
       <c r="I307" s="3">
@@ -14327,7 +14327,7 @@
         <v>2183</v>
       </c>
       <c r="H308" s="3">
-        <f>H307+G308</f>
+        <f t="shared" si="38"/>
         <v>217544</v>
       </c>
       <c r="I308" s="3">
@@ -14372,7 +14372,7 @@
         <v>1600</v>
       </c>
       <c r="H309" s="3">
-        <f>H308+G309</f>
+        <f t="shared" si="38"/>
         <v>219144</v>
       </c>
       <c r="I309" s="3">
@@ -14417,7 +14417,7 @@
         <v>1689</v>
       </c>
       <c r="H310" s="3">
-        <f>H309+G310</f>
+        <f t="shared" si="38"/>
         <v>220833</v>
       </c>
       <c r="I310" s="3">
@@ -14435,6 +14435,51 @@
       <c r="L310" s="8">
         <f t="shared" si="34"/>
         <v>0.23672080772607551</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A311" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B311" s="7">
+        <v>17137</v>
+      </c>
+      <c r="C311" s="7">
+        <v>3740</v>
+      </c>
+      <c r="D311" s="3">
+        <f>D310+C311</f>
+        <v>285093</v>
+      </c>
+      <c r="E311" s="7">
+        <v>61</v>
+      </c>
+      <c r="F311" s="7">
+        <f>F310+E311</f>
+        <v>4561</v>
+      </c>
+      <c r="G311" s="7">
+        <v>2802</v>
+      </c>
+      <c r="H311" s="3">
+        <f t="shared" si="38"/>
+        <v>223635</v>
+      </c>
+      <c r="I311" s="3">
+        <f t="shared" si="31"/>
+        <v>56897</v>
+      </c>
+      <c r="J311" s="5">
+        <f t="shared" si="32"/>
+        <v>1.5998288277860206E-2</v>
+      </c>
+      <c r="K311" s="6">
+        <f t="shared" si="33"/>
+        <v>0.78442823920615379</v>
+      </c>
+      <c r="L311" s="8">
+        <f t="shared" si="34"/>
+        <v>0.21824123242107721</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid_panama_new.xlsx
+++ b/data/covid_panama_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmlemus/covid19/covid19-panama/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B697FF2-D7CE-084E-B28D-B11D87798603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF452B-07ED-B244-A80C-A714A7A27927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CE17F0A9-EE9F-7F40-AD90-5984D200C7B1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>fecha</t>
   </si>
@@ -70,6 +70,48 @@
   </si>
   <si>
     <t>pct_positividad</t>
+  </si>
+  <si>
+    <t>casos_menos_20</t>
+  </si>
+  <si>
+    <t>casos_20_39</t>
+  </si>
+  <si>
+    <t>casos_40_59</t>
+  </si>
+  <si>
+    <t>casos_60_79</t>
+  </si>
+  <si>
+    <t>casos_80_mas</t>
+  </si>
+  <si>
+    <t>fallecidos_menos_20</t>
+  </si>
+  <si>
+    <t>fallecidos_20_39</t>
+  </si>
+  <si>
+    <t>fallecidos_40_59</t>
+  </si>
+  <si>
+    <t>fallecidos_60_79</t>
+  </si>
+  <si>
+    <t>fallecidos_80_mas</t>
+  </si>
+  <si>
+    <t>UCI</t>
+  </si>
+  <si>
+    <t>salas</t>
+  </si>
+  <si>
+    <t>hoteles</t>
+  </si>
+  <si>
+    <t>domicilios</t>
   </si>
 </sst>
 </file>
@@ -493,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B195D63B-8D96-B24C-BDA4-64FADF9A87BE}">
-  <dimension ref="A1:L311"/>
+  <dimension ref="A1:Z312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="K307" sqref="K307"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="Y317" sqref="Y317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,9 +551,15 @@
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,8 +596,50 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43899</v>
       </c>
@@ -590,8 +680,22 @@
         <f t="shared" ref="L2:L65" si="3">C2/B2</f>
         <v>9.5238095238095247E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43900</v>
       </c>
@@ -635,8 +739,22 @@
         <f t="shared" si="3"/>
         <v>0.17073170731707318</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43901</v>
       </c>
@@ -680,8 +798,22 @@
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43902</v>
       </c>
@@ -725,8 +857,22 @@
         <f t="shared" si="3"/>
         <v>7.7294685990338161E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43903</v>
       </c>
@@ -770,8 +916,22 @@
         <f t="shared" si="3"/>
         <v>3.6290322580645164E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43904</v>
       </c>
@@ -815,8 +975,22 @@
         <f t="shared" si="3"/>
         <v>3.3653846153846152E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43905</v>
       </c>
@@ -860,8 +1034,22 @@
         <f t="shared" si="3"/>
         <v>0.10084033613445378</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43906</v>
       </c>
@@ -905,8 +1093,22 @@
         <f t="shared" si="3"/>
         <v>0.14432989690721648</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43907</v>
       </c>
@@ -950,8 +1152,22 @@
         <f t="shared" si="3"/>
         <v>9.8837209302325577E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43908</v>
       </c>
@@ -995,8 +1211,22 @@
         <f t="shared" si="3"/>
         <v>0.10952380952380952</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43909</v>
       </c>
@@ -1040,8 +1270,22 @@
         <f t="shared" si="3"/>
         <v>8.9456869009584661E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43910</v>
       </c>
@@ -1085,8 +1329,22 @@
         <f t="shared" si="3"/>
         <v>0.15710723192019951</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43911</v>
       </c>
@@ -1130,8 +1388,22 @@
         <f t="shared" si="3"/>
         <v>0.22442244224422442</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43912</v>
       </c>
@@ -1175,8 +1447,22 @@
         <f t="shared" si="3"/>
         <v>7.1770334928229665E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43913</v>
       </c>
@@ -1219,8 +1505,22 @@
         <f t="shared" si="3"/>
         <v>0.23880597014925373</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43914</v>
       </c>
@@ -1264,8 +1564,22 @@
         <f t="shared" si="3"/>
         <v>0.21444201312910285</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43915</v>
       </c>
@@ -1309,8 +1623,22 @@
         <f t="shared" si="3"/>
         <v>0.20609318996415771</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43916</v>
       </c>
@@ -1354,8 +1682,22 @@
         <f t="shared" si="3"/>
         <v>0.19078947368421054</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43917</v>
       </c>
@@ -1399,8 +1741,22 @@
         <f t="shared" si="3"/>
         <v>0.30601092896174864</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43918</v>
       </c>
@@ -1444,8 +1800,22 @@
         <f t="shared" si="3"/>
         <v>0.21296296296296297</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43919</v>
       </c>
@@ -1489,8 +1859,22 @@
         <f t="shared" si="3"/>
         <v>0.22110552763819097</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43920</v>
       </c>
@@ -1533,8 +1917,22 @@
         <f t="shared" si="3"/>
         <v>0.20379146919431279</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43921</v>
       </c>
@@ -1577,8 +1975,22 @@
         <f t="shared" si="3"/>
         <v>0.29281767955801102</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43922</v>
       </c>
@@ -1622,8 +2034,22 @@
         <f t="shared" si="3"/>
         <v>0.34961439588688947</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43923</v>
       </c>
@@ -1667,8 +2093,22 @@
         <f t="shared" si="3"/>
         <v>0.25986842105263158</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43924</v>
       </c>
@@ -1712,8 +2152,22 @@
         <f t="shared" si="3"/>
         <v>0.26294820717131473</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43925</v>
       </c>
@@ -1757,8 +2211,22 @@
         <f t="shared" si="3"/>
         <v>0.22775800711743771</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43926</v>
       </c>
@@ -1802,8 +2270,22 @@
         <f t="shared" si="3"/>
         <v>0.42212189616252821</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43927</v>
       </c>
@@ -1847,8 +2329,22 @@
         <f t="shared" si="3"/>
         <v>0.2174757281553398</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43928</v>
       </c>
@@ -1892,8 +2388,22 @@
         <f t="shared" si="3"/>
         <v>0.31905781584582443</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43929</v>
       </c>
@@ -1937,8 +2447,22 @@
         <f t="shared" si="3"/>
         <v>0.25479452054794521</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43930</v>
       </c>
@@ -1982,8 +2506,22 @@
         <f t="shared" si="3"/>
         <v>0.27757125154894674</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43931</v>
       </c>
@@ -2027,8 +2565,22 @@
         <f t="shared" si="3"/>
         <v>0.20845070422535211</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43932</v>
       </c>
@@ -2072,8 +2624,22 @@
         <f t="shared" si="3"/>
         <v>0.27659574468085107</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43933</v>
       </c>
@@ -2117,8 +2683,22 @@
         <f t="shared" si="3"/>
         <v>0.29695885509838998</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43934</v>
       </c>
@@ -2162,8 +2742,22 @@
         <f t="shared" si="3"/>
         <v>0.17142857142857143</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43935</v>
       </c>
@@ -2207,8 +2801,22 @@
         <f t="shared" si="3"/>
         <v>0.20987654320987653</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43936</v>
       </c>
@@ -2252,8 +2860,22 @@
         <f t="shared" si="3"/>
         <v>0.22097378277153559</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43937</v>
       </c>
@@ -2297,8 +2919,22 @@
         <f t="shared" si="3"/>
         <v>0.26606425702811243</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43938</v>
       </c>
@@ -2342,8 +2978,22 @@
         <f t="shared" si="3"/>
         <v>0.27362482369534558</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43939</v>
       </c>
@@ -2387,8 +3037,22 @@
         <f t="shared" si="3"/>
         <v>0.11842105263157894</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43940</v>
       </c>
@@ -2432,8 +3096,22 @@
         <f t="shared" si="3"/>
         <v>0.18546845124282982</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43941</v>
       </c>
@@ -2477,8 +3155,22 @@
         <f t="shared" si="3"/>
         <v>0.22235157159487776</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43942</v>
       </c>
@@ -2522,8 +3214,22 @@
         <f t="shared" si="3"/>
         <v>0.17991169977924945</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43943</v>
       </c>
@@ -2567,8 +3273,22 @@
         <f t="shared" si="3"/>
         <v>0.21375</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43944</v>
       </c>
@@ -2612,8 +3332,22 @@
         <f t="shared" si="3"/>
         <v>0.14903846153846154</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43945</v>
       </c>
@@ -2657,8 +3391,22 @@
         <f t="shared" si="3"/>
         <v>0.2883116883116883</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43946</v>
       </c>
@@ -2702,8 +3450,22 @@
         <f t="shared" si="3"/>
         <v>0.18248175182481752</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43947</v>
       </c>
@@ -2747,8 +3509,22 @@
         <f t="shared" si="3"/>
         <v>0.19404186795491143</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43948</v>
       </c>
@@ -2792,8 +3568,22 @@
         <f t="shared" si="3"/>
         <v>0.20302013422818793</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43949</v>
       </c>
@@ -2836,8 +3626,22 @@
         <f t="shared" si="3"/>
         <v>0.186264308012487</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43950</v>
       </c>
@@ -2880,8 +3684,22 @@
         <f t="shared" si="3"/>
         <v>0.17082533589251439</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43951</v>
       </c>
@@ -2925,8 +3743,22 @@
         <f t="shared" si="3"/>
         <v>0.16885964912280702</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43952</v>
       </c>
@@ -2970,8 +3802,22 @@
         <f t="shared" si="3"/>
         <v>0.16404886561954624</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43953</v>
       </c>
@@ -3015,8 +3861,22 @@
         <f t="shared" si="3"/>
         <v>0.25359835503769707</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43954</v>
       </c>
@@ -3059,8 +3919,22 @@
         <f t="shared" si="3"/>
         <v>9.6832579185520365E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43955</v>
       </c>
@@ -3103,8 +3977,22 @@
         <f t="shared" si="3"/>
         <v>0.1731996353691887</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43956</v>
       </c>
@@ -3147,8 +4035,22 @@
         <f t="shared" si="3"/>
         <v>0.14670981661272922</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43957</v>
       </c>
@@ -3191,8 +4093,22 @@
         <f t="shared" si="3"/>
         <v>0.13585891574134554</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43958</v>
       </c>
@@ -3236,8 +4152,22 @@
         <f t="shared" si="3"/>
         <v>0.12696941612604262</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43959</v>
       </c>
@@ -3281,8 +4211,22 @@
         <f t="shared" si="3"/>
         <v>0.15993665874901028</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43960</v>
       </c>
@@ -3326,8 +4270,22 @@
         <f t="shared" si="3"/>
         <v>0.16395978344934262</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43961</v>
       </c>
@@ -3371,8 +4329,22 @@
         <f t="shared" si="3"/>
         <v>0.16468253968253968</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43962</v>
       </c>
@@ -3416,8 +4388,22 @@
         <f t="shared" si="3"/>
         <v>0.16699801192842942</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43963</v>
       </c>
@@ -3461,8 +4447,22 @@
         <f t="shared" ref="L66:L129" si="13">C66/B66</f>
         <v>0.16902834008097167</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43964</v>
       </c>
@@ -3506,8 +4506,22 @@
         <f t="shared" si="13"/>
         <v>0.13175122749590834</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43965</v>
       </c>
@@ -3551,8 +4565,22 @@
         <f t="shared" si="13"/>
         <v>0.16975609756097562</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43966</v>
       </c>
@@ -3596,8 +4624,22 @@
         <f t="shared" si="13"/>
         <v>0.17241379310344829</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43967</v>
       </c>
@@ -3641,8 +4683,22 @@
         <f t="shared" si="13"/>
         <v>0.13547904191616766</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43968</v>
       </c>
@@ -3686,8 +4742,22 @@
         <f t="shared" si="13"/>
         <v>0.12620578778135047</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43969</v>
       </c>
@@ -3731,8 +4801,22 @@
         <f t="shared" si="13"/>
         <v>0.15852047556142668</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43970</v>
       </c>
@@ -3776,8 +4860,22 @@
         <f t="shared" si="13"/>
         <v>0.19859154929577466</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43971</v>
       </c>
@@ -3821,8 +4919,22 @@
         <f t="shared" si="13"/>
         <v>0.13317191283292978</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43972</v>
       </c>
@@ -3866,8 +4978,22 @@
         <f t="shared" si="13"/>
         <v>0.108003108003108</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43973</v>
       </c>
@@ -3911,8 +5037,22 @@
         <f t="shared" si="13"/>
         <v>0.13853211009174313</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43974</v>
       </c>
@@ -3956,8 +5096,22 @@
         <f t="shared" si="13"/>
         <v>0.178468624064479</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43975</v>
       </c>
@@ -4001,8 +5155,22 @@
         <f t="shared" si="13"/>
         <v>0.23501683501683501</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43976</v>
       </c>
@@ -4046,8 +5214,22 @@
         <f t="shared" si="13"/>
         <v>0.23384895359417651</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43977</v>
       </c>
@@ -4091,8 +5273,22 @@
         <f t="shared" si="13"/>
         <v>0.20969023034154091</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43978</v>
       </c>
@@ -4136,8 +5332,22 @@
         <f t="shared" si="13"/>
         <v>0.21665381649961449</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43979</v>
       </c>
@@ -4181,8 +5391,22 @@
         <f t="shared" si="13"/>
         <v>0.30833970925784238</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43980</v>
       </c>
@@ -4226,8 +5450,22 @@
         <f t="shared" si="13"/>
         <v>0.27797081306462823</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43981</v>
       </c>
@@ -4271,8 +5509,22 @@
         <f t="shared" si="13"/>
         <v>0.31399097356544164</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43982</v>
       </c>
@@ -4316,8 +5568,22 @@
         <f t="shared" si="13"/>
         <v>0.28933680104031212</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43983</v>
       </c>
@@ -4361,8 +5627,22 @@
         <f t="shared" si="13"/>
         <v>0.41325966850828727</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43984</v>
       </c>
@@ -4406,8 +5686,22 @@
         <f t="shared" si="13"/>
         <v>0.30424528301886794</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43985</v>
       </c>
@@ -4451,8 +5745,22 @@
         <f t="shared" si="13"/>
         <v>0.31038647342995168</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43986</v>
       </c>
@@ -4496,8 +5804,22 @@
         <f t="shared" si="13"/>
         <v>0.279204107830552</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43987</v>
       </c>
@@ -4541,8 +5863,22 @@
         <f t="shared" si="13"/>
         <v>0.27314211212516298</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43988</v>
       </c>
@@ -4586,8 +5922,22 @@
         <f t="shared" si="13"/>
         <v>0.30530474040632055</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>43989</v>
       </c>
@@ -4631,8 +5981,22 @@
         <f t="shared" si="13"/>
         <v>0.26494650723725616</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43990</v>
       </c>
@@ -4676,8 +6040,22 @@
         <f t="shared" si="13"/>
         <v>0.25596658711217185</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>43991</v>
       </c>
@@ -4721,8 +6099,22 @@
         <f t="shared" si="13"/>
         <v>0.26101928374655647</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>43992</v>
       </c>
@@ -4766,8 +6158,22 @@
         <f t="shared" si="13"/>
         <v>0.31937682570593962</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43993</v>
       </c>
@@ -4811,8 +6217,22 @@
         <f t="shared" si="13"/>
         <v>0.31213613972234661</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>43994</v>
       </c>
@@ -4856,8 +6276,22 @@
         <f t="shared" si="13"/>
         <v>0.30727630285152407</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>43995</v>
       </c>
@@ -4901,8 +6335,22 @@
         <f t="shared" si="13"/>
         <v>0.31465677179962892</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>43996</v>
       </c>
@@ -4945,8 +6393,22 @@
         <f t="shared" si="13"/>
         <v>0.32982640715412942</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>43997</v>
       </c>
@@ -4989,8 +6451,22 @@
         <f t="shared" si="13"/>
         <v>0.366351418616227</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>43998</v>
       </c>
@@ -5034,8 +6510,22 @@
         <f t="shared" si="13"/>
         <v>0.32667876588021777</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>43999</v>
       </c>
@@ -5079,8 +6569,22 @@
         <f t="shared" si="13"/>
         <v>0.30194959581550168</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>44000</v>
       </c>
@@ -5124,8 +6628,22 @@
         <f t="shared" si="13"/>
         <v>0.30551053484602919</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>44001</v>
       </c>
@@ -5169,8 +6687,22 @@
         <f t="shared" si="13"/>
         <v>0.32580303565125307</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>44002</v>
       </c>
@@ -5214,8 +6746,22 @@
         <f t="shared" si="13"/>
         <v>0.34260932417780993</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>44003</v>
       </c>
@@ -5259,8 +6805,22 @@
         <f t="shared" si="13"/>
         <v>0.33210028771064531</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>44004</v>
       </c>
@@ -5304,8 +6864,22 @@
         <f t="shared" si="13"/>
         <v>0.34595112601820793</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>44005</v>
       </c>
@@ -5349,8 +6923,22 @@
         <f t="shared" si="13"/>
         <v>0.32206303724928365</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>44006</v>
       </c>
@@ -5394,8 +6982,22 @@
         <f t="shared" si="13"/>
         <v>0.3103597745990464</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>44007</v>
       </c>
@@ -5439,8 +7041,22 @@
         <f t="shared" si="13"/>
         <v>0.31234491315136476</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>44008</v>
       </c>
@@ -5484,8 +7100,22 @@
         <f t="shared" si="13"/>
         <v>0.28580836351662825</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="3"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>44009</v>
       </c>
@@ -5529,8 +7159,22 @@
         <f t="shared" si="13"/>
         <v>0.31839323467230446</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="3"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>44010</v>
       </c>
@@ -5574,8 +7218,22 @@
         <f t="shared" si="13"/>
         <v>0.35423845623707789</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>44011</v>
       </c>
@@ -5619,8 +7277,22 @@
         <f t="shared" si="13"/>
         <v>0.34077519379844962</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>44012</v>
       </c>
@@ -5664,8 +7336,22 @@
         <f t="shared" si="13"/>
         <v>0.3861686017163049</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>44013</v>
       </c>
@@ -5709,8 +7395,22 @@
         <f t="shared" si="13"/>
         <v>0.34156378600823045</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>44014</v>
       </c>
@@ -5754,8 +7454,22 @@
         <f t="shared" si="13"/>
         <v>0.32908163265306123</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>44015</v>
       </c>
@@ -5799,8 +7513,22 @@
         <f t="shared" si="13"/>
         <v>0.33245614035087717</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>44016</v>
       </c>
@@ -5844,8 +7572,22 @@
         <f t="shared" si="13"/>
         <v>0.30855715178013743</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+      <c r="Y119" s="3"/>
+      <c r="Z119" s="3"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>44017</v>
       </c>
@@ -5889,8 +7631,22 @@
         <f t="shared" si="13"/>
         <v>0.32077028885832187</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>44018</v>
       </c>
@@ -5934,8 +7690,22 @@
         <f t="shared" si="13"/>
         <v>0.37065999374413511</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>44019</v>
       </c>
@@ -5979,8 +7749,22 @@
         <f t="shared" si="13"/>
         <v>0.39431396786155748</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>44020</v>
       </c>
@@ -6024,8 +7808,22 @@
         <f t="shared" si="13"/>
         <v>0.36838066001534919</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
+      <c r="Z123" s="3"/>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>44021</v>
       </c>
@@ -6069,8 +7867,22 @@
         <f t="shared" si="13"/>
         <v>0.39275539275539273</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>44022</v>
       </c>
@@ -6114,8 +7926,22 @@
         <f t="shared" si="13"/>
         <v>0.33975195822454307</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>44023</v>
       </c>
@@ -6159,8 +7985,22 @@
         <f t="shared" si="13"/>
         <v>0.38434036467643906</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="3"/>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>44024</v>
       </c>
@@ -6204,8 +8044,22 @@
         <f t="shared" si="13"/>
         <v>0.37590291823172495</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+      <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
+      <c r="Y127" s="3"/>
+      <c r="Z127" s="3"/>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>44025</v>
       </c>
@@ -6249,8 +8103,22 @@
         <f t="shared" si="13"/>
         <v>0.42896935933147634</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="3"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>44026</v>
       </c>
@@ -6294,8 +8162,22 @@
         <f t="shared" si="13"/>
         <v>0.3551365909965371</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
+      <c r="Y129" s="3"/>
+      <c r="Z129" s="3"/>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>44027</v>
       </c>
@@ -6339,8 +8221,22 @@
         <f t="shared" ref="L130:L193" si="20">C130/B130</f>
         <v>0.35521833384948903</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+      <c r="Z130" s="3"/>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>44028</v>
       </c>
@@ -6384,8 +8280,22 @@
         <f t="shared" si="20"/>
         <v>0.32304173813607778</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
+      <c r="Y131" s="3"/>
+      <c r="Z131" s="3"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>44029</v>
       </c>
@@ -6429,8 +8339,22 @@
         <f t="shared" si="20"/>
         <v>0.3483675530124537</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+      <c r="Z132" s="3"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>44030</v>
       </c>
@@ -6474,8 +8398,22 @@
         <f t="shared" si="20"/>
         <v>0.34859011033919085</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+      <c r="W133" s="3"/>
+      <c r="X133" s="3"/>
+      <c r="Y133" s="3"/>
+      <c r="Z133" s="3"/>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>44031</v>
       </c>
@@ -6519,8 +8457,22 @@
         <f t="shared" si="20"/>
         <v>0.31931216931216932</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="3"/>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>44032</v>
       </c>
@@ -6564,8 +8516,22 @@
         <f t="shared" si="20"/>
         <v>0.33034482758620692</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+      <c r="U135" s="3"/>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3"/>
+      <c r="X135" s="3"/>
+      <c r="Y135" s="3"/>
+      <c r="Z135" s="3"/>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>44033</v>
       </c>
@@ -6609,8 +8575,22 @@
         <f t="shared" si="20"/>
         <v>0.33908582089552236</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
+      <c r="Y136" s="3"/>
+      <c r="Z136" s="3"/>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>44034</v>
       </c>
@@ -6654,8 +8634,22 @@
         <f t="shared" si="20"/>
         <v>0.29952267303102625</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
+      <c r="Y137" s="3"/>
+      <c r="Z137" s="3"/>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>44035</v>
       </c>
@@ -6699,8 +8693,22 @@
         <f t="shared" si="20"/>
         <v>0.30306054557551565</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
+      <c r="Y138" s="3"/>
+      <c r="Z138" s="3"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>44036</v>
       </c>
@@ -6744,8 +8752,22 @@
         <f t="shared" si="20"/>
         <v>0.34782608695652173</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+      <c r="Y139" s="3"/>
+      <c r="Z139" s="3"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>44037</v>
       </c>
@@ -6789,8 +8811,22 @@
         <f t="shared" si="20"/>
         <v>0.33320581484315226</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+      <c r="U140" s="3"/>
+      <c r="V140" s="3"/>
+      <c r="W140" s="3"/>
+      <c r="X140" s="3"/>
+      <c r="Y140" s="3"/>
+      <c r="Z140" s="3"/>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>44038</v>
       </c>
@@ -6834,8 +8870,22 @@
         <f t="shared" si="20"/>
         <v>0.33240482822655526</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+      <c r="U141" s="3"/>
+      <c r="V141" s="3"/>
+      <c r="W141" s="3"/>
+      <c r="X141" s="3"/>
+      <c r="Y141" s="3"/>
+      <c r="Z141" s="3"/>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>44039</v>
       </c>
@@ -6879,8 +8929,22 @@
         <f t="shared" si="20"/>
         <v>0.33073593073593072</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+      <c r="U142" s="3"/>
+      <c r="V142" s="3"/>
+      <c r="W142" s="3"/>
+      <c r="X142" s="3"/>
+      <c r="Y142" s="3"/>
+      <c r="Z142" s="3"/>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>44040</v>
       </c>
@@ -6924,8 +8988,22 @@
         <f t="shared" si="20"/>
         <v>0.35116906474820142</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3"/>
+      <c r="V143" s="3"/>
+      <c r="W143" s="3"/>
+      <c r="X143" s="3"/>
+      <c r="Y143" s="3"/>
+      <c r="Z143" s="3"/>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>44041</v>
       </c>
@@ -6969,8 +9047,22 @@
         <f t="shared" si="20"/>
         <v>0.33386530481966165</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="3"/>
+      <c r="V144" s="3"/>
+      <c r="W144" s="3"/>
+      <c r="X144" s="3"/>
+      <c r="Y144" s="3"/>
+      <c r="Z144" s="3"/>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>44042</v>
       </c>
@@ -7014,8 +9106,22 @@
         <f t="shared" si="20"/>
         <v>0.28704856787048566</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+      <c r="U145" s="3"/>
+      <c r="V145" s="3"/>
+      <c r="W145" s="3"/>
+      <c r="X145" s="3"/>
+      <c r="Y145" s="3"/>
+      <c r="Z145" s="3"/>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>44043</v>
       </c>
@@ -7059,8 +9165,22 @@
         <f t="shared" si="20"/>
         <v>0.34940944881889763</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+      <c r="U146" s="3"/>
+      <c r="V146" s="3"/>
+      <c r="W146" s="3"/>
+      <c r="X146" s="3"/>
+      <c r="Y146" s="3"/>
+      <c r="Z146" s="3"/>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>44044</v>
       </c>
@@ -7104,8 +9224,22 @@
         <f t="shared" si="20"/>
         <v>0.31253466444814199</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3"/>
+      <c r="V147" s="3"/>
+      <c r="W147" s="3"/>
+      <c r="X147" s="3"/>
+      <c r="Y147" s="3"/>
+      <c r="Z147" s="3"/>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>44045</v>
       </c>
@@ -7149,8 +9283,22 @@
         <f t="shared" si="20"/>
         <v>0.33075734157650694</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+      <c r="W148" s="3"/>
+      <c r="X148" s="3"/>
+      <c r="Y148" s="3"/>
+      <c r="Z148" s="3"/>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>44046</v>
       </c>
@@ -7194,8 +9342,22 @@
         <f t="shared" si="20"/>
         <v>0.37383525903838988</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3"/>
+      <c r="U149" s="3"/>
+      <c r="V149" s="3"/>
+      <c r="W149" s="3"/>
+      <c r="X149" s="3"/>
+      <c r="Y149" s="3"/>
+      <c r="Z149" s="3"/>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>44047</v>
       </c>
@@ -7239,8 +9401,22 @@
         <f t="shared" si="20"/>
         <v>0.39672131147540984</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+      <c r="U150" s="3"/>
+      <c r="V150" s="3"/>
+      <c r="W150" s="3"/>
+      <c r="X150" s="3"/>
+      <c r="Y150" s="3"/>
+      <c r="Z150" s="3"/>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>44048</v>
       </c>
@@ -7284,8 +9460,22 @@
         <f t="shared" si="20"/>
         <v>0.31834319526627219</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="3"/>
+      <c r="S151" s="3"/>
+      <c r="T151" s="3"/>
+      <c r="U151" s="3"/>
+      <c r="V151" s="3"/>
+      <c r="W151" s="3"/>
+      <c r="X151" s="3"/>
+      <c r="Y151" s="3"/>
+      <c r="Z151" s="3"/>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>44049</v>
       </c>
@@ -7329,8 +9519,22 @@
         <f t="shared" si="20"/>
         <v>0.33856246434683401</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3"/>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3"/>
+      <c r="U152" s="3"/>
+      <c r="V152" s="3"/>
+      <c r="W152" s="3"/>
+      <c r="X152" s="3"/>
+      <c r="Y152" s="3"/>
+      <c r="Z152" s="3"/>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>44050</v>
       </c>
@@ -7374,8 +9578,22 @@
         <f t="shared" si="20"/>
         <v>0.34764079147640792</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3"/>
+      <c r="S153" s="3"/>
+      <c r="T153" s="3"/>
+      <c r="U153" s="3"/>
+      <c r="V153" s="3"/>
+      <c r="W153" s="3"/>
+      <c r="X153" s="3"/>
+      <c r="Y153" s="3"/>
+      <c r="Z153" s="3"/>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>44051</v>
       </c>
@@ -7419,8 +9637,22 @@
         <f t="shared" si="20"/>
         <v>0.37210095497953616</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3"/>
+      <c r="S154" s="3"/>
+      <c r="T154" s="3"/>
+      <c r="U154" s="3"/>
+      <c r="V154" s="3"/>
+      <c r="W154" s="3"/>
+      <c r="X154" s="3"/>
+      <c r="Y154" s="3"/>
+      <c r="Z154" s="3"/>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>44052</v>
       </c>
@@ -7464,8 +9696,22 @@
         <f t="shared" si="20"/>
         <v>0.3038294797687861</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3"/>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3"/>
+      <c r="U155" s="3"/>
+      <c r="V155" s="3"/>
+      <c r="W155" s="3"/>
+      <c r="X155" s="3"/>
+      <c r="Y155" s="3"/>
+      <c r="Z155" s="3"/>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>44053</v>
       </c>
@@ -7509,8 +9755,22 @@
         <f t="shared" si="20"/>
         <v>0.37567680133277803</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3"/>
+      <c r="S156" s="3"/>
+      <c r="T156" s="3"/>
+      <c r="U156" s="3"/>
+      <c r="V156" s="3"/>
+      <c r="W156" s="3"/>
+      <c r="X156" s="3"/>
+      <c r="Y156" s="3"/>
+      <c r="Z156" s="3"/>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>44054</v>
       </c>
@@ -7554,8 +9814,22 @@
         <f t="shared" si="20"/>
         <v>0.3523213697728021</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+      <c r="U157" s="3"/>
+      <c r="V157" s="3"/>
+      <c r="W157" s="3"/>
+      <c r="X157" s="3"/>
+      <c r="Y157" s="3"/>
+      <c r="Z157" s="3"/>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>44055</v>
       </c>
@@ -7599,8 +9873,22 @@
         <f t="shared" si="20"/>
         <v>0.32537419814682822</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3"/>
+      <c r="U158" s="3"/>
+      <c r="V158" s="3"/>
+      <c r="W158" s="3"/>
+      <c r="X158" s="3"/>
+      <c r="Y158" s="3"/>
+      <c r="Z158" s="3"/>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>44056</v>
       </c>
@@ -7644,8 +9932,22 @@
         <f t="shared" si="20"/>
         <v>0.34197056941778631</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3"/>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3"/>
+      <c r="U159" s="3"/>
+      <c r="V159" s="3"/>
+      <c r="W159" s="3"/>
+      <c r="X159" s="3"/>
+      <c r="Y159" s="3"/>
+      <c r="Z159" s="3"/>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>44057</v>
       </c>
@@ -7689,8 +9991,22 @@
         <f t="shared" si="20"/>
         <v>0.35459940652818989</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
+      <c r="Y160" s="3"/>
+      <c r="Z160" s="3"/>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>44058</v>
       </c>
@@ -7734,8 +10050,22 @@
         <f t="shared" si="20"/>
         <v>0.30551523947750364</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="3"/>
+      <c r="Z161" s="3"/>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>44059</v>
       </c>
@@ -7779,8 +10109,22 @@
         <f t="shared" si="20"/>
         <v>0.38566243194192379</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3"/>
+      <c r="U162" s="3"/>
+      <c r="V162" s="3"/>
+      <c r="W162" s="3"/>
+      <c r="X162" s="3"/>
+      <c r="Y162" s="3"/>
+      <c r="Z162" s="3"/>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>44060</v>
       </c>
@@ -7824,8 +10168,22 @@
         <f t="shared" si="20"/>
         <v>0.27421555252387447</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+      <c r="W163" s="3"/>
+      <c r="X163" s="3"/>
+      <c r="Y163" s="3"/>
+      <c r="Z163" s="3"/>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>44061</v>
       </c>
@@ -7869,8 +10227,22 @@
         <f t="shared" si="20"/>
         <v>9.1346153846153841E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
+      <c r="Y164" s="3"/>
+      <c r="Z164" s="3"/>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>44062</v>
       </c>
@@ -7914,8 +10286,22 @@
         <f t="shared" si="20"/>
         <v>0.16498374122882081</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+      <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
+      <c r="Y165" s="3"/>
+      <c r="Z165" s="3"/>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>44063</v>
       </c>
@@ -7959,8 +10345,22 @@
         <f t="shared" si="20"/>
         <v>1.9928966061562747E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+      <c r="Y166" s="3"/>
+      <c r="Z166" s="3"/>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>44064</v>
       </c>
@@ -8004,8 +10404,22 @@
         <f t="shared" si="20"/>
         <v>0.11673913043478261</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
+      <c r="Y167" s="3"/>
+      <c r="Z167" s="3"/>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>44065</v>
       </c>
@@ -8049,8 +10463,22 @@
         <f t="shared" si="20"/>
         <v>0.19600072059088453</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
+      <c r="Y168" s="3"/>
+      <c r="Z168" s="3"/>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>44066</v>
       </c>
@@ -8094,8 +10522,22 @@
         <f t="shared" si="20"/>
         <v>0.18735981000131943</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
+      <c r="Y169" s="3"/>
+      <c r="Z169" s="3"/>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>44067</v>
       </c>
@@ -8139,8 +10581,22 @@
         <f t="shared" si="20"/>
         <v>0.17180616740088106</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+      <c r="Y170" s="3"/>
+      <c r="Z170" s="3"/>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>44068</v>
       </c>
@@ -8184,8 +10640,22 @@
         <f t="shared" si="20"/>
         <v>0.18259629101283881</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
+      <c r="Y171" s="3"/>
+      <c r="Z171" s="3"/>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>44069</v>
       </c>
@@ -8229,8 +10699,22 @@
         <f t="shared" si="20"/>
         <v>0.18379653906659674</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3"/>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3"/>
+      <c r="U172" s="3"/>
+      <c r="V172" s="3"/>
+      <c r="W172" s="3"/>
+      <c r="X172" s="3"/>
+      <c r="Y172" s="3"/>
+      <c r="Z172" s="3"/>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>44070</v>
       </c>
@@ -8274,8 +10758,22 @@
         <f t="shared" si="20"/>
         <v>0.20804438280166435</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="3"/>
+      <c r="R173" s="3"/>
+      <c r="S173" s="3"/>
+      <c r="T173" s="3"/>
+      <c r="U173" s="3"/>
+      <c r="V173" s="3"/>
+      <c r="W173" s="3"/>
+      <c r="X173" s="3"/>
+      <c r="Y173" s="3"/>
+      <c r="Z173" s="3"/>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>44071</v>
       </c>
@@ -8319,8 +10817,22 @@
         <f t="shared" si="20"/>
         <v>0.12551319648093842</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+      <c r="U174" s="3"/>
+      <c r="V174" s="3"/>
+      <c r="W174" s="3"/>
+      <c r="X174" s="3"/>
+      <c r="Y174" s="3"/>
+      <c r="Z174" s="3"/>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>44072</v>
       </c>
@@ -8364,8 +10876,22 @@
         <f t="shared" si="20"/>
         <v>0.14897618052653572</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+      <c r="R175" s="3"/>
+      <c r="S175" s="3"/>
+      <c r="T175" s="3"/>
+      <c r="U175" s="3"/>
+      <c r="V175" s="3"/>
+      <c r="W175" s="3"/>
+      <c r="X175" s="3"/>
+      <c r="Y175" s="3"/>
+      <c r="Z175" s="3"/>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>44073</v>
       </c>
@@ -8409,8 +10935,22 @@
         <f t="shared" si="20"/>
         <v>0.24982841455044613</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="3"/>
+      <c r="R176" s="3"/>
+      <c r="S176" s="3"/>
+      <c r="T176" s="3"/>
+      <c r="U176" s="3"/>
+      <c r="V176" s="3"/>
+      <c r="W176" s="3"/>
+      <c r="X176" s="3"/>
+      <c r="Y176" s="3"/>
+      <c r="Z176" s="3"/>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>44074</v>
       </c>
@@ -8454,8 +10994,22 @@
         <f t="shared" si="20"/>
         <v>0.16386704789135095</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3"/>
+      <c r="R177" s="3"/>
+      <c r="S177" s="3"/>
+      <c r="T177" s="3"/>
+      <c r="U177" s="3"/>
+      <c r="V177" s="3"/>
+      <c r="W177" s="3"/>
+      <c r="X177" s="3"/>
+      <c r="Y177" s="3"/>
+      <c r="Z177" s="3"/>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>44075</v>
       </c>
@@ -8499,8 +11053,22 @@
         <f t="shared" si="20"/>
         <v>0.16220830961866819</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3"/>
+      <c r="R178" s="3"/>
+      <c r="S178" s="3"/>
+      <c r="T178" s="3"/>
+      <c r="U178" s="3"/>
+      <c r="V178" s="3"/>
+      <c r="W178" s="3"/>
+      <c r="X178" s="3"/>
+      <c r="Y178" s="3"/>
+      <c r="Z178" s="3"/>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>44076</v>
       </c>
@@ -8544,8 +11112,22 @@
         <f t="shared" si="20"/>
         <v>0.14224598930481283</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
+      <c r="O179" s="3"/>
+      <c r="P179" s="3"/>
+      <c r="Q179" s="3"/>
+      <c r="R179" s="3"/>
+      <c r="S179" s="3"/>
+      <c r="T179" s="3"/>
+      <c r="U179" s="3"/>
+      <c r="V179" s="3"/>
+      <c r="W179" s="3"/>
+      <c r="X179" s="3"/>
+      <c r="Y179" s="3"/>
+      <c r="Z179" s="3"/>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>44077</v>
       </c>
@@ -8589,8 +11171,22 @@
         <f t="shared" si="20"/>
         <v>0.23566155593412833</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="3"/>
+      <c r="T180" s="3"/>
+      <c r="U180" s="3"/>
+      <c r="V180" s="3"/>
+      <c r="W180" s="3"/>
+      <c r="X180" s="3"/>
+      <c r="Y180" s="3"/>
+      <c r="Z180" s="3"/>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>44078</v>
       </c>
@@ -8634,8 +11230,22 @@
         <f t="shared" si="20"/>
         <v>0.13372549019607843</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
+      <c r="P181" s="3"/>
+      <c r="Q181" s="3"/>
+      <c r="R181" s="3"/>
+      <c r="S181" s="3"/>
+      <c r="T181" s="3"/>
+      <c r="U181" s="3"/>
+      <c r="V181" s="3"/>
+      <c r="W181" s="3"/>
+      <c r="X181" s="3"/>
+      <c r="Y181" s="3"/>
+      <c r="Z181" s="3"/>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>44079</v>
       </c>
@@ -8679,8 +11289,22 @@
         <f t="shared" si="20"/>
         <v>0.13100517368810052</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="3"/>
+      <c r="R182" s="3"/>
+      <c r="S182" s="3"/>
+      <c r="T182" s="3"/>
+      <c r="U182" s="3"/>
+      <c r="V182" s="3"/>
+      <c r="W182" s="3"/>
+      <c r="X182" s="3"/>
+      <c r="Y182" s="3"/>
+      <c r="Z182" s="3"/>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>44080</v>
       </c>
@@ -8724,8 +11348,22 @@
         <f t="shared" si="20"/>
         <v>0.14912103455243483</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="3"/>
+      <c r="S183" s="3"/>
+      <c r="T183" s="3"/>
+      <c r="U183" s="3"/>
+      <c r="V183" s="3"/>
+      <c r="W183" s="3"/>
+      <c r="X183" s="3"/>
+      <c r="Y183" s="3"/>
+      <c r="Z183" s="3"/>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>44081</v>
       </c>
@@ -8769,8 +11407,22 @@
         <f t="shared" si="20"/>
         <v>0.16261398176291794</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="3"/>
+      <c r="S184" s="3"/>
+      <c r="T184" s="3"/>
+      <c r="U184" s="3"/>
+      <c r="V184" s="3"/>
+      <c r="W184" s="3"/>
+      <c r="X184" s="3"/>
+      <c r="Y184" s="3"/>
+      <c r="Z184" s="3"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>44082</v>
       </c>
@@ -8814,8 +11466,22 @@
         <f t="shared" si="20"/>
         <v>0.16006951148870438</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3"/>
+      <c r="R185" s="3"/>
+      <c r="S185" s="3"/>
+      <c r="T185" s="3"/>
+      <c r="U185" s="3"/>
+      <c r="V185" s="3"/>
+      <c r="W185" s="3"/>
+      <c r="X185" s="3"/>
+      <c r="Y185" s="3"/>
+      <c r="Z185" s="3"/>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>44083</v>
       </c>
@@ -8859,8 +11525,22 @@
         <f t="shared" si="20"/>
         <v>0.13090084518655948</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="3"/>
+      <c r="T186" s="3"/>
+      <c r="U186" s="3"/>
+      <c r="V186" s="3"/>
+      <c r="W186" s="3"/>
+      <c r="X186" s="3"/>
+      <c r="Y186" s="3"/>
+      <c r="Z186" s="3"/>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>44084</v>
       </c>
@@ -8904,8 +11584,22 @@
         <f t="shared" si="20"/>
         <v>0.13261083743842364</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
+      <c r="P187" s="3"/>
+      <c r="Q187" s="3"/>
+      <c r="R187" s="3"/>
+      <c r="S187" s="3"/>
+      <c r="T187" s="3"/>
+      <c r="U187" s="3"/>
+      <c r="V187" s="3"/>
+      <c r="W187" s="3"/>
+      <c r="X187" s="3"/>
+      <c r="Y187" s="3"/>
+      <c r="Z187" s="3"/>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>44085</v>
       </c>
@@ -8949,8 +11643,22 @@
         <f t="shared" si="20"/>
         <v>0.12282804074295986</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
+      <c r="P188" s="3"/>
+      <c r="Q188" s="3"/>
+      <c r="R188" s="3"/>
+      <c r="S188" s="3"/>
+      <c r="T188" s="3"/>
+      <c r="U188" s="3"/>
+      <c r="V188" s="3"/>
+      <c r="W188" s="3"/>
+      <c r="X188" s="3"/>
+      <c r="Y188" s="3"/>
+      <c r="Z188" s="3"/>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>44086</v>
       </c>
@@ -8994,8 +11702,22 @@
         <f t="shared" si="20"/>
         <v>0.13683602771362588</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="3"/>
+      <c r="P189" s="3"/>
+      <c r="Q189" s="3"/>
+      <c r="R189" s="3"/>
+      <c r="S189" s="3"/>
+      <c r="T189" s="3"/>
+      <c r="U189" s="3"/>
+      <c r="V189" s="3"/>
+      <c r="W189" s="3"/>
+      <c r="X189" s="3"/>
+      <c r="Y189" s="3"/>
+      <c r="Z189" s="3"/>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>44087</v>
       </c>
@@ -9039,8 +11761,22 @@
         <f t="shared" si="20"/>
         <v>0.15752964869098232</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
+      <c r="O190" s="3"/>
+      <c r="P190" s="3"/>
+      <c r="Q190" s="3"/>
+      <c r="R190" s="3"/>
+      <c r="S190" s="3"/>
+      <c r="T190" s="3"/>
+      <c r="U190" s="3"/>
+      <c r="V190" s="3"/>
+      <c r="W190" s="3"/>
+      <c r="X190" s="3"/>
+      <c r="Y190" s="3"/>
+      <c r="Z190" s="3"/>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>44088</v>
       </c>
@@ -9084,8 +11820,22 @@
         <f t="shared" si="20"/>
         <v>0.15965217391304348</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
+      <c r="O191" s="3"/>
+      <c r="P191" s="3"/>
+      <c r="Q191" s="3"/>
+      <c r="R191" s="3"/>
+      <c r="S191" s="3"/>
+      <c r="T191" s="3"/>
+      <c r="U191" s="3"/>
+      <c r="V191" s="3"/>
+      <c r="W191" s="3"/>
+      <c r="X191" s="3"/>
+      <c r="Y191" s="3"/>
+      <c r="Z191" s="3"/>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>44089</v>
       </c>
@@ -9129,8 +11879,22 @@
         <f t="shared" si="20"/>
         <v>0.13248945147679325</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192" s="3"/>
+      <c r="N192" s="3"/>
+      <c r="O192" s="3"/>
+      <c r="P192" s="3"/>
+      <c r="Q192" s="3"/>
+      <c r="R192" s="3"/>
+      <c r="S192" s="3"/>
+      <c r="T192" s="3"/>
+      <c r="U192" s="3"/>
+      <c r="V192" s="3"/>
+      <c r="W192" s="3"/>
+      <c r="X192" s="3"/>
+      <c r="Y192" s="3"/>
+      <c r="Z192" s="3"/>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>44090</v>
       </c>
@@ -9174,8 +11938,22 @@
         <f t="shared" si="20"/>
         <v>0.11626627544470934</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="3"/>
+      <c r="T193" s="3"/>
+      <c r="U193" s="3"/>
+      <c r="V193" s="3"/>
+      <c r="W193" s="3"/>
+      <c r="X193" s="3"/>
+      <c r="Y193" s="3"/>
+      <c r="Z193" s="3"/>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>44091</v>
       </c>
@@ -9219,8 +11997,22 @@
         <f t="shared" ref="L194:L257" si="27">C194/B194</f>
         <v>0.12549019607843137</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="3"/>
+      <c r="R194" s="3"/>
+      <c r="S194" s="3"/>
+      <c r="T194" s="3"/>
+      <c r="U194" s="3"/>
+      <c r="V194" s="3"/>
+      <c r="W194" s="3"/>
+      <c r="X194" s="3"/>
+      <c r="Y194" s="3"/>
+      <c r="Z194" s="3"/>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>44092</v>
       </c>
@@ -9264,8 +12056,22 @@
         <f t="shared" si="27"/>
         <v>0.13636363636363635</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+      <c r="R195" s="3"/>
+      <c r="S195" s="3"/>
+      <c r="T195" s="3"/>
+      <c r="U195" s="3"/>
+      <c r="V195" s="3"/>
+      <c r="W195" s="3"/>
+      <c r="X195" s="3"/>
+      <c r="Y195" s="3"/>
+      <c r="Z195" s="3"/>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>44093</v>
       </c>
@@ -9309,8 +12115,22 @@
         <f t="shared" si="27"/>
         <v>0.13286713286713286</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+      <c r="R196" s="3"/>
+      <c r="S196" s="3"/>
+      <c r="T196" s="3"/>
+      <c r="U196" s="3"/>
+      <c r="V196" s="3"/>
+      <c r="W196" s="3"/>
+      <c r="X196" s="3"/>
+      <c r="Y196" s="3"/>
+      <c r="Z196" s="3"/>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>44094</v>
       </c>
@@ -9354,8 +12174,22 @@
         <f t="shared" si="27"/>
         <v>0.12122432541280709</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="S197" s="3"/>
+      <c r="T197" s="3"/>
+      <c r="U197" s="3"/>
+      <c r="V197" s="3"/>
+      <c r="W197" s="3"/>
+      <c r="X197" s="3"/>
+      <c r="Y197" s="3"/>
+      <c r="Z197" s="3"/>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>44095</v>
       </c>
@@ -9399,8 +12233,22 @@
         <f t="shared" si="27"/>
         <v>0.15572088250384813</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3"/>
+      <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
+      <c r="S198" s="3"/>
+      <c r="T198" s="3"/>
+      <c r="U198" s="3"/>
+      <c r="V198" s="3"/>
+      <c r="W198" s="3"/>
+      <c r="X198" s="3"/>
+      <c r="Y198" s="3"/>
+      <c r="Z198" s="3"/>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>44096</v>
       </c>
@@ -9444,8 +12292,22 @@
         <f t="shared" si="27"/>
         <v>0.10433634162447722</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="3"/>
+      <c r="R199" s="3"/>
+      <c r="S199" s="3"/>
+      <c r="T199" s="3"/>
+      <c r="U199" s="3"/>
+      <c r="V199" s="3"/>
+      <c r="W199" s="3"/>
+      <c r="X199" s="3"/>
+      <c r="Y199" s="3"/>
+      <c r="Z199" s="3"/>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>44097</v>
       </c>
@@ -9489,8 +12351,22 @@
         <f t="shared" si="27"/>
         <v>0.12789855072463768</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
+      <c r="Q200" s="3"/>
+      <c r="R200" s="3"/>
+      <c r="S200" s="3"/>
+      <c r="T200" s="3"/>
+      <c r="U200" s="3"/>
+      <c r="V200" s="3"/>
+      <c r="W200" s="3"/>
+      <c r="X200" s="3"/>
+      <c r="Y200" s="3"/>
+      <c r="Z200" s="3"/>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>44098</v>
       </c>
@@ -9534,8 +12410,22 @@
         <f t="shared" si="27"/>
         <v>0.11967479674796748</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
+      <c r="Q201" s="3"/>
+      <c r="R201" s="3"/>
+      <c r="S201" s="3"/>
+      <c r="T201" s="3"/>
+      <c r="U201" s="3"/>
+      <c r="V201" s="3"/>
+      <c r="W201" s="3"/>
+      <c r="X201" s="3"/>
+      <c r="Y201" s="3"/>
+      <c r="Z201" s="3"/>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>44099</v>
       </c>
@@ -9579,8 +12469,22 @@
         <f t="shared" si="27"/>
         <v>0.12744034707158353</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+      <c r="P202" s="3"/>
+      <c r="Q202" s="3"/>
+      <c r="R202" s="3"/>
+      <c r="S202" s="3"/>
+      <c r="T202" s="3"/>
+      <c r="U202" s="3"/>
+      <c r="V202" s="3"/>
+      <c r="W202" s="3"/>
+      <c r="X202" s="3"/>
+      <c r="Y202" s="3"/>
+      <c r="Z202" s="3"/>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>44100</v>
       </c>
@@ -9624,8 +12528,22 @@
         <f t="shared" si="27"/>
         <v>0.12802571860816944</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
+      <c r="Q203" s="3"/>
+      <c r="R203" s="3"/>
+      <c r="S203" s="3"/>
+      <c r="T203" s="3"/>
+      <c r="U203" s="3"/>
+      <c r="V203" s="3"/>
+      <c r="W203" s="3"/>
+      <c r="X203" s="3"/>
+      <c r="Y203" s="3"/>
+      <c r="Z203" s="3"/>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>44101</v>
       </c>
@@ -9669,8 +12587,22 @@
         <f t="shared" si="27"/>
         <v>0.12468619246861924</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
+      <c r="Q204" s="3"/>
+      <c r="R204" s="3"/>
+      <c r="S204" s="3"/>
+      <c r="T204" s="3"/>
+      <c r="U204" s="3"/>
+      <c r="V204" s="3"/>
+      <c r="W204" s="3"/>
+      <c r="X204" s="3"/>
+      <c r="Y204" s="3"/>
+      <c r="Z204" s="3"/>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>44102</v>
       </c>
@@ -9714,8 +12646,22 @@
         <f t="shared" si="27"/>
         <v>0.16130473637176049</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3"/>
+      <c r="Q205" s="3"/>
+      <c r="R205" s="3"/>
+      <c r="S205" s="3"/>
+      <c r="T205" s="3"/>
+      <c r="U205" s="3"/>
+      <c r="V205" s="3"/>
+      <c r="W205" s="3"/>
+      <c r="X205" s="3"/>
+      <c r="Y205" s="3"/>
+      <c r="Z205" s="3"/>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>44103</v>
       </c>
@@ -9759,8 +12705,22 @@
         <f t="shared" si="27"/>
         <v>0.13604156825696739</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3"/>
+      <c r="S206" s="3"/>
+      <c r="T206" s="3"/>
+      <c r="U206" s="3"/>
+      <c r="V206" s="3"/>
+      <c r="W206" s="3"/>
+      <c r="X206" s="3"/>
+      <c r="Y206" s="3"/>
+      <c r="Z206" s="3"/>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>44104</v>
       </c>
@@ -9804,8 +12764,22 @@
         <f t="shared" si="27"/>
         <v>0.14236377590176516</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+      <c r="P207" s="3"/>
+      <c r="Q207" s="3"/>
+      <c r="R207" s="3"/>
+      <c r="S207" s="3"/>
+      <c r="T207" s="3"/>
+      <c r="U207" s="3"/>
+      <c r="V207" s="3"/>
+      <c r="W207" s="3"/>
+      <c r="X207" s="3"/>
+      <c r="Y207" s="3"/>
+      <c r="Z207" s="3"/>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>44105</v>
       </c>
@@ -9849,8 +12823,22 @@
         <f t="shared" si="27"/>
         <v>0.12872652076512148</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
+      <c r="P208" s="3"/>
+      <c r="Q208" s="3"/>
+      <c r="R208" s="3"/>
+      <c r="S208" s="3"/>
+      <c r="T208" s="3"/>
+      <c r="U208" s="3"/>
+      <c r="V208" s="3"/>
+      <c r="W208" s="3"/>
+      <c r="X208" s="3"/>
+      <c r="Y208" s="3"/>
+      <c r="Z208" s="3"/>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>44106</v>
       </c>
@@ -9894,8 +12882,22 @@
         <f t="shared" si="27"/>
         <v>0.11403347434246827</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
+      <c r="Q209" s="3"/>
+      <c r="R209" s="3"/>
+      <c r="S209" s="3"/>
+      <c r="T209" s="3"/>
+      <c r="U209" s="3"/>
+      <c r="V209" s="3"/>
+      <c r="W209" s="3"/>
+      <c r="X209" s="3"/>
+      <c r="Y209" s="3"/>
+      <c r="Z209" s="3"/>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>44107</v>
       </c>
@@ -9939,8 +12941,22 @@
         <f t="shared" si="27"/>
         <v>0.12416891284815813</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
+      <c r="P210" s="3"/>
+      <c r="Q210" s="3"/>
+      <c r="R210" s="3"/>
+      <c r="S210" s="3"/>
+      <c r="T210" s="3"/>
+      <c r="U210" s="3"/>
+      <c r="V210" s="3"/>
+      <c r="W210" s="3"/>
+      <c r="X210" s="3"/>
+      <c r="Y210" s="3"/>
+      <c r="Z210" s="3"/>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>44108</v>
       </c>
@@ -9984,8 +13000,22 @@
         <f t="shared" si="27"/>
         <v>0.12059439893313012</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
+      <c r="Q211" s="3"/>
+      <c r="R211" s="3"/>
+      <c r="S211" s="3"/>
+      <c r="T211" s="3"/>
+      <c r="U211" s="3"/>
+      <c r="V211" s="3"/>
+      <c r="W211" s="3"/>
+      <c r="X211" s="3"/>
+      <c r="Y211" s="3"/>
+      <c r="Z211" s="3"/>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>44109</v>
       </c>
@@ -10029,8 +13059,22 @@
         <f t="shared" si="27"/>
         <v>0.15278783490224476</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
+      <c r="O212" s="3"/>
+      <c r="P212" s="3"/>
+      <c r="Q212" s="3"/>
+      <c r="R212" s="3"/>
+      <c r="S212" s="3"/>
+      <c r="T212" s="3"/>
+      <c r="U212" s="3"/>
+      <c r="V212" s="3"/>
+      <c r="W212" s="3"/>
+      <c r="X212" s="3"/>
+      <c r="Y212" s="3"/>
+      <c r="Z212" s="3"/>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>44110</v>
       </c>
@@ -10074,8 +13118,22 @@
         <f t="shared" si="27"/>
         <v>0.11527426160337553</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213" s="3"/>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3"/>
+      <c r="P213" s="3"/>
+      <c r="Q213" s="3"/>
+      <c r="R213" s="3"/>
+      <c r="S213" s="3"/>
+      <c r="T213" s="3"/>
+      <c r="U213" s="3"/>
+      <c r="V213" s="3"/>
+      <c r="W213" s="3"/>
+      <c r="X213" s="3"/>
+      <c r="Y213" s="3"/>
+      <c r="Z213" s="3"/>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>44111</v>
       </c>
@@ -10119,8 +13177,22 @@
         <f t="shared" si="27"/>
         <v>0.11230893000804505</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
+      <c r="P214" s="3"/>
+      <c r="Q214" s="3"/>
+      <c r="R214" s="3"/>
+      <c r="S214" s="3"/>
+      <c r="T214" s="3"/>
+      <c r="U214" s="3"/>
+      <c r="V214" s="3"/>
+      <c r="W214" s="3"/>
+      <c r="X214" s="3"/>
+      <c r="Y214" s="3"/>
+      <c r="Z214" s="3"/>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>44112</v>
       </c>
@@ -10164,8 +13236,22 @@
         <f t="shared" si="27"/>
         <v>0.12919808087731321</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="P215" s="3"/>
+      <c r="Q215" s="3"/>
+      <c r="R215" s="3"/>
+      <c r="S215" s="3"/>
+      <c r="T215" s="3"/>
+      <c r="U215" s="3"/>
+      <c r="V215" s="3"/>
+      <c r="W215" s="3"/>
+      <c r="X215" s="3"/>
+      <c r="Y215" s="3"/>
+      <c r="Z215" s="3"/>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>44113</v>
       </c>
@@ -10209,8 +13295,22 @@
         <f t="shared" si="27"/>
         <v>0.11697384066587396</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3"/>
+      <c r="Q216" s="3"/>
+      <c r="R216" s="3"/>
+      <c r="S216" s="3"/>
+      <c r="T216" s="3"/>
+      <c r="U216" s="3"/>
+      <c r="V216" s="3"/>
+      <c r="W216" s="3"/>
+      <c r="X216" s="3"/>
+      <c r="Y216" s="3"/>
+      <c r="Z216" s="3"/>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>44114</v>
       </c>
@@ -10254,8 +13354,22 @@
         <f t="shared" si="27"/>
         <v>0.11737089201877934</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
+      <c r="Q217" s="3"/>
+      <c r="R217" s="3"/>
+      <c r="S217" s="3"/>
+      <c r="T217" s="3"/>
+      <c r="U217" s="3"/>
+      <c r="V217" s="3"/>
+      <c r="W217" s="3"/>
+      <c r="X217" s="3"/>
+      <c r="Y217" s="3"/>
+      <c r="Z217" s="3"/>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>44115</v>
       </c>
@@ -10299,8 +13413,22 @@
         <f t="shared" si="27"/>
         <v>0.1418859649122807</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+      <c r="P218" s="3"/>
+      <c r="Q218" s="3"/>
+      <c r="R218" s="3"/>
+      <c r="S218" s="3"/>
+      <c r="T218" s="3"/>
+      <c r="U218" s="3"/>
+      <c r="V218" s="3"/>
+      <c r="W218" s="3"/>
+      <c r="X218" s="3"/>
+      <c r="Y218" s="3"/>
+      <c r="Z218" s="3"/>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>44116</v>
       </c>
@@ -10344,8 +13472,22 @@
         <f t="shared" si="27"/>
         <v>0.12008840864440079</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
+      <c r="P219" s="3"/>
+      <c r="Q219" s="3"/>
+      <c r="R219" s="3"/>
+      <c r="S219" s="3"/>
+      <c r="T219" s="3"/>
+      <c r="U219" s="3"/>
+      <c r="V219" s="3"/>
+      <c r="W219" s="3"/>
+      <c r="X219" s="3"/>
+      <c r="Y219" s="3"/>
+      <c r="Z219" s="3"/>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>44117</v>
       </c>
@@ -10389,8 +13531,22 @@
         <f t="shared" si="27"/>
         <v>9.6277528746832972E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+      <c r="O220" s="3"/>
+      <c r="P220" s="3"/>
+      <c r="Q220" s="3"/>
+      <c r="R220" s="3"/>
+      <c r="S220" s="3"/>
+      <c r="T220" s="3"/>
+      <c r="U220" s="3"/>
+      <c r="V220" s="3"/>
+      <c r="W220" s="3"/>
+      <c r="X220" s="3"/>
+      <c r="Y220" s="3"/>
+      <c r="Z220" s="3"/>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>44118</v>
       </c>
@@ -10434,8 +13590,22 @@
         <f t="shared" si="27"/>
         <v>0.12564180006040471</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3"/>
+      <c r="S221" s="3"/>
+      <c r="T221" s="3"/>
+      <c r="U221" s="3"/>
+      <c r="V221" s="3"/>
+      <c r="W221" s="3"/>
+      <c r="X221" s="3"/>
+      <c r="Y221" s="3"/>
+      <c r="Z221" s="3"/>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>44119</v>
       </c>
@@ -10479,8 +13649,22 @@
         <f t="shared" si="27"/>
         <v>0.10822821100917432</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+      <c r="P222" s="3"/>
+      <c r="Q222" s="3"/>
+      <c r="R222" s="3"/>
+      <c r="S222" s="3"/>
+      <c r="T222" s="3"/>
+      <c r="U222" s="3"/>
+      <c r="V222" s="3"/>
+      <c r="W222" s="3"/>
+      <c r="X222" s="3"/>
+      <c r="Y222" s="3"/>
+      <c r="Z222" s="3"/>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>44120</v>
       </c>
@@ -10524,8 +13708,22 @@
         <f t="shared" si="27"/>
         <v>9.5024721878862795E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
+      <c r="P223" s="3"/>
+      <c r="Q223" s="3"/>
+      <c r="R223" s="3"/>
+      <c r="S223" s="3"/>
+      <c r="T223" s="3"/>
+      <c r="U223" s="3"/>
+      <c r="V223" s="3"/>
+      <c r="W223" s="3"/>
+      <c r="X223" s="3"/>
+      <c r="Y223" s="3"/>
+      <c r="Z223" s="3"/>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>44121</v>
       </c>
@@ -10569,8 +13767,22 @@
         <f t="shared" si="27"/>
         <v>0.14541547277936961</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224" s="3"/>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
+      <c r="P224" s="3"/>
+      <c r="Q224" s="3"/>
+      <c r="R224" s="3"/>
+      <c r="S224" s="3"/>
+      <c r="T224" s="3"/>
+      <c r="U224" s="3"/>
+      <c r="V224" s="3"/>
+      <c r="W224" s="3"/>
+      <c r="X224" s="3"/>
+      <c r="Y224" s="3"/>
+      <c r="Z224" s="3"/>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>44122</v>
       </c>
@@ -10614,8 +13826,22 @@
         <f t="shared" si="27"/>
         <v>0.13364055299539171</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="3"/>
+      <c r="R225" s="3"/>
+      <c r="S225" s="3"/>
+      <c r="T225" s="3"/>
+      <c r="U225" s="3"/>
+      <c r="V225" s="3"/>
+      <c r="W225" s="3"/>
+      <c r="X225" s="3"/>
+      <c r="Y225" s="3"/>
+      <c r="Z225" s="3"/>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>44123</v>
       </c>
@@ -10659,8 +13885,22 @@
         <f t="shared" si="27"/>
         <v>0.15314365999297505</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3"/>
+      <c r="P226" s="3"/>
+      <c r="Q226" s="3"/>
+      <c r="R226" s="3"/>
+      <c r="S226" s="3"/>
+      <c r="T226" s="3"/>
+      <c r="U226" s="3"/>
+      <c r="V226" s="3"/>
+      <c r="W226" s="3"/>
+      <c r="X226" s="3"/>
+      <c r="Y226" s="3"/>
+      <c r="Z226" s="3"/>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>44124</v>
       </c>
@@ -10704,8 +13944,22 @@
         <f t="shared" si="27"/>
         <v>9.8187576983987335E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+      <c r="R227" s="3"/>
+      <c r="S227" s="3"/>
+      <c r="T227" s="3"/>
+      <c r="U227" s="3"/>
+      <c r="V227" s="3"/>
+      <c r="W227" s="3"/>
+      <c r="X227" s="3"/>
+      <c r="Y227" s="3"/>
+      <c r="Z227" s="3"/>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>44125</v>
       </c>
@@ -10749,8 +14003,22 @@
         <f t="shared" si="27"/>
         <v>8.1747709654686404E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3"/>
+      <c r="S228" s="3"/>
+      <c r="T228" s="3"/>
+      <c r="U228" s="3"/>
+      <c r="V228" s="3"/>
+      <c r="W228" s="3"/>
+      <c r="X228" s="3"/>
+      <c r="Y228" s="3"/>
+      <c r="Z228" s="3"/>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>44126</v>
       </c>
@@ -10794,8 +14062,22 @@
         <f t="shared" si="27"/>
         <v>0.10221992772328342</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M229" s="3"/>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3"/>
+      <c r="Q229" s="3"/>
+      <c r="R229" s="3"/>
+      <c r="S229" s="3"/>
+      <c r="T229" s="3"/>
+      <c r="U229" s="3"/>
+      <c r="V229" s="3"/>
+      <c r="W229" s="3"/>
+      <c r="X229" s="3"/>
+      <c r="Y229" s="3"/>
+      <c r="Z229" s="3"/>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>44127</v>
       </c>
@@ -10839,8 +14121,22 @@
         <f t="shared" si="27"/>
         <v>9.2488059053408594E-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M230" s="3"/>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
+      <c r="P230" s="3"/>
+      <c r="Q230" s="3"/>
+      <c r="R230" s="3"/>
+      <c r="S230" s="3"/>
+      <c r="T230" s="3"/>
+      <c r="U230" s="3"/>
+      <c r="V230" s="3"/>
+      <c r="W230" s="3"/>
+      <c r="X230" s="3"/>
+      <c r="Y230" s="3"/>
+      <c r="Z230" s="3"/>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>44128</v>
       </c>
@@ -10884,8 +14180,22 @@
         <f t="shared" si="27"/>
         <v>0.10072947384758653</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M231" s="3"/>
+      <c r="N231" s="3"/>
+      <c r="O231" s="3"/>
+      <c r="P231" s="3"/>
+      <c r="Q231" s="3"/>
+      <c r="R231" s="3"/>
+      <c r="S231" s="3"/>
+      <c r="T231" s="3"/>
+      <c r="U231" s="3"/>
+      <c r="V231" s="3"/>
+      <c r="W231" s="3"/>
+      <c r="X231" s="3"/>
+      <c r="Y231" s="3"/>
+      <c r="Z231" s="3"/>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>44129</v>
       </c>
@@ -10929,8 +14239,22 @@
         <f t="shared" si="27"/>
         <v>0.10289920384557609</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M232" s="3"/>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
+      <c r="Q232" s="3"/>
+      <c r="R232" s="3"/>
+      <c r="S232" s="3"/>
+      <c r="T232" s="3"/>
+      <c r="U232" s="3"/>
+      <c r="V232" s="3"/>
+      <c r="W232" s="3"/>
+      <c r="X232" s="3"/>
+      <c r="Y232" s="3"/>
+      <c r="Z232" s="3"/>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>44130</v>
       </c>
@@ -10974,8 +14298,22 @@
         <f t="shared" si="27"/>
         <v>0.15075239398084817</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M233" s="3"/>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="P233" s="3"/>
+      <c r="Q233" s="3"/>
+      <c r="R233" s="3"/>
+      <c r="S233" s="3"/>
+      <c r="T233" s="3"/>
+      <c r="U233" s="3"/>
+      <c r="V233" s="3"/>
+      <c r="W233" s="3"/>
+      <c r="X233" s="3"/>
+      <c r="Y233" s="3"/>
+      <c r="Z233" s="3"/>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>44131</v>
       </c>
@@ -11019,8 +14357,22 @@
         <f t="shared" si="27"/>
         <v>9.5870838691241606E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+      <c r="R234" s="3"/>
+      <c r="S234" s="3"/>
+      <c r="T234" s="3"/>
+      <c r="U234" s="3"/>
+      <c r="V234" s="3"/>
+      <c r="W234" s="3"/>
+      <c r="X234" s="3"/>
+      <c r="Y234" s="3"/>
+      <c r="Z234" s="3"/>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>44132</v>
       </c>
@@ -11064,8 +14416,22 @@
         <f t="shared" si="27"/>
         <v>0.10448328267477204</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
+      <c r="Q235" s="3"/>
+      <c r="R235" s="3"/>
+      <c r="S235" s="3"/>
+      <c r="T235" s="3"/>
+      <c r="U235" s="3"/>
+      <c r="V235" s="3"/>
+      <c r="W235" s="3"/>
+      <c r="X235" s="3"/>
+      <c r="Y235" s="3"/>
+      <c r="Z235" s="3"/>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>44133</v>
       </c>
@@ -11109,8 +14475,22 @@
         <f t="shared" si="27"/>
         <v>0.1005164378385187</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M236" s="3"/>
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+      <c r="P236" s="3"/>
+      <c r="Q236" s="3"/>
+      <c r="R236" s="3"/>
+      <c r="S236" s="3"/>
+      <c r="T236" s="3"/>
+      <c r="U236" s="3"/>
+      <c r="V236" s="3"/>
+      <c r="W236" s="3"/>
+      <c r="X236" s="3"/>
+      <c r="Y236" s="3"/>
+      <c r="Z236" s="3"/>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>44134</v>
       </c>
@@ -11154,8 +14534,22 @@
         <f t="shared" si="27"/>
         <v>0.10144390966308775</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M237" s="3"/>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
+      <c r="Q237" s="3"/>
+      <c r="R237" s="3"/>
+      <c r="S237" s="3"/>
+      <c r="T237" s="3"/>
+      <c r="U237" s="3"/>
+      <c r="V237" s="3"/>
+      <c r="W237" s="3"/>
+      <c r="X237" s="3"/>
+      <c r="Y237" s="3"/>
+      <c r="Z237" s="3"/>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>44135</v>
       </c>
@@ -11199,8 +14593,22 @@
         <f t="shared" si="27"/>
         <v>9.8173515981735154E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M238" s="3"/>
+      <c r="N238" s="3"/>
+      <c r="O238" s="3"/>
+      <c r="P238" s="3"/>
+      <c r="Q238" s="3"/>
+      <c r="R238" s="3"/>
+      <c r="S238" s="3"/>
+      <c r="T238" s="3"/>
+      <c r="U238" s="3"/>
+      <c r="V238" s="3"/>
+      <c r="W238" s="3"/>
+      <c r="X238" s="3"/>
+      <c r="Y238" s="3"/>
+      <c r="Z238" s="3"/>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>44136</v>
       </c>
@@ -11244,8 +14652,22 @@
         <f t="shared" si="27"/>
         <v>0.1138537488429497</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M239" s="3"/>
+      <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="P239" s="3"/>
+      <c r="Q239" s="3"/>
+      <c r="R239" s="3"/>
+      <c r="S239" s="3"/>
+      <c r="T239" s="3"/>
+      <c r="U239" s="3"/>
+      <c r="V239" s="3"/>
+      <c r="W239" s="3"/>
+      <c r="X239" s="3"/>
+      <c r="Y239" s="3"/>
+      <c r="Z239" s="3"/>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>44137</v>
       </c>
@@ -11289,8 +14711,22 @@
         <f t="shared" si="27"/>
         <v>0.12551484933882506</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M240" s="3"/>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
+      <c r="Q240" s="3"/>
+      <c r="R240" s="3"/>
+      <c r="S240" s="3"/>
+      <c r="T240" s="3"/>
+      <c r="U240" s="3"/>
+      <c r="V240" s="3"/>
+      <c r="W240" s="3"/>
+      <c r="X240" s="3"/>
+      <c r="Y240" s="3"/>
+      <c r="Z240" s="3"/>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>44138</v>
       </c>
@@ -11334,8 +14770,22 @@
         <f t="shared" si="27"/>
         <v>0.11692573402417962</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M241" s="3"/>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3"/>
+      <c r="Q241" s="3"/>
+      <c r="R241" s="3"/>
+      <c r="S241" s="3"/>
+      <c r="T241" s="3"/>
+      <c r="U241" s="3"/>
+      <c r="V241" s="3"/>
+      <c r="W241" s="3"/>
+      <c r="X241" s="3"/>
+      <c r="Y241" s="3"/>
+      <c r="Z241" s="3"/>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>44139</v>
       </c>
@@ -11379,8 +14829,22 @@
         <f t="shared" si="27"/>
         <v>0.13495782567947517</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M242" s="3"/>
+      <c r="N242" s="3"/>
+      <c r="O242" s="3"/>
+      <c r="P242" s="3"/>
+      <c r="Q242" s="3"/>
+      <c r="R242" s="3"/>
+      <c r="S242" s="3"/>
+      <c r="T242" s="3"/>
+      <c r="U242" s="3"/>
+      <c r="V242" s="3"/>
+      <c r="W242" s="3"/>
+      <c r="X242" s="3"/>
+      <c r="Y242" s="3"/>
+      <c r="Z242" s="3"/>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>44140</v>
       </c>
@@ -11424,8 +14888,22 @@
         <f t="shared" si="27"/>
         <v>0.12543312543312543</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M243" s="3"/>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
+      <c r="P243" s="3"/>
+      <c r="Q243" s="3"/>
+      <c r="R243" s="3"/>
+      <c r="S243" s="3"/>
+      <c r="T243" s="3"/>
+      <c r="U243" s="3"/>
+      <c r="V243" s="3"/>
+      <c r="W243" s="3"/>
+      <c r="X243" s="3"/>
+      <c r="Y243" s="3"/>
+      <c r="Z243" s="3"/>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>44141</v>
       </c>
@@ -11469,8 +14947,22 @@
         <f t="shared" si="27"/>
         <v>0.16102038061816709</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M244" s="3"/>
+      <c r="N244" s="3"/>
+      <c r="O244" s="3"/>
+      <c r="P244" s="3"/>
+      <c r="Q244" s="3"/>
+      <c r="R244" s="3"/>
+      <c r="S244" s="3"/>
+      <c r="T244" s="3"/>
+      <c r="U244" s="3"/>
+      <c r="V244" s="3"/>
+      <c r="W244" s="3"/>
+      <c r="X244" s="3"/>
+      <c r="Y244" s="3"/>
+      <c r="Z244" s="3"/>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>44142</v>
       </c>
@@ -11514,8 +15006,22 @@
         <f t="shared" si="27"/>
         <v>0.11569478908188585</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M245" s="3"/>
+      <c r="N245" s="3"/>
+      <c r="O245" s="3"/>
+      <c r="P245" s="3"/>
+      <c r="Q245" s="3"/>
+      <c r="R245" s="3"/>
+      <c r="S245" s="3"/>
+      <c r="T245" s="3"/>
+      <c r="U245" s="3"/>
+      <c r="V245" s="3"/>
+      <c r="W245" s="3"/>
+      <c r="X245" s="3"/>
+      <c r="Y245" s="3"/>
+      <c r="Z245" s="3"/>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>44143</v>
       </c>
@@ -11559,8 +15065,22 @@
         <f t="shared" si="27"/>
         <v>0.1456698530460836</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M246" s="3"/>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="P246" s="3"/>
+      <c r="Q246" s="3"/>
+      <c r="R246" s="3"/>
+      <c r="S246" s="3"/>
+      <c r="T246" s="3"/>
+      <c r="U246" s="3"/>
+      <c r="V246" s="3"/>
+      <c r="W246" s="3"/>
+      <c r="X246" s="3"/>
+      <c r="Y246" s="3"/>
+      <c r="Z246" s="3"/>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>44144</v>
       </c>
@@ -11604,8 +15124,22 @@
         <f t="shared" si="27"/>
         <v>0.15036469048064335</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3"/>
+      <c r="Q247" s="3"/>
+      <c r="R247" s="3"/>
+      <c r="S247" s="3"/>
+      <c r="T247" s="3"/>
+      <c r="U247" s="3"/>
+      <c r="V247" s="3"/>
+      <c r="W247" s="3"/>
+      <c r="X247" s="3"/>
+      <c r="Y247" s="3"/>
+      <c r="Z247" s="3"/>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>44145</v>
       </c>
@@ -11649,8 +15183,22 @@
         <f t="shared" si="27"/>
         <v>0.13716626642181098</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3"/>
+      <c r="Q248" s="3"/>
+      <c r="R248" s="3"/>
+      <c r="S248" s="3"/>
+      <c r="T248" s="3"/>
+      <c r="U248" s="3"/>
+      <c r="V248" s="3"/>
+      <c r="W248" s="3"/>
+      <c r="X248" s="3"/>
+      <c r="Y248" s="3"/>
+      <c r="Z248" s="3"/>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>44146</v>
       </c>
@@ -11694,8 +15242,22 @@
         <f t="shared" si="27"/>
         <v>0.18495547073791349</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3"/>
+      <c r="Q249" s="3"/>
+      <c r="R249" s="3"/>
+      <c r="S249" s="3"/>
+      <c r="T249" s="3"/>
+      <c r="U249" s="3"/>
+      <c r="V249" s="3"/>
+      <c r="W249" s="3"/>
+      <c r="X249" s="3"/>
+      <c r="Y249" s="3"/>
+      <c r="Z249" s="3"/>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>44147</v>
       </c>
@@ -11739,8 +15301,22 @@
         <f t="shared" si="27"/>
         <v>0.1250528690258001</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="3"/>
+      <c r="P250" s="3"/>
+      <c r="Q250" s="3"/>
+      <c r="R250" s="3"/>
+      <c r="S250" s="3"/>
+      <c r="T250" s="3"/>
+      <c r="U250" s="3"/>
+      <c r="V250" s="3"/>
+      <c r="W250" s="3"/>
+      <c r="X250" s="3"/>
+      <c r="Y250" s="3"/>
+      <c r="Z250" s="3"/>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>44148</v>
       </c>
@@ -11784,8 +15360,22 @@
         <f t="shared" si="27"/>
         <v>0.1228970941664846</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M251" s="3"/>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="P251" s="3"/>
+      <c r="Q251" s="3"/>
+      <c r="R251" s="3"/>
+      <c r="S251" s="3"/>
+      <c r="T251" s="3"/>
+      <c r="U251" s="3"/>
+      <c r="V251" s="3"/>
+      <c r="W251" s="3"/>
+      <c r="X251" s="3"/>
+      <c r="Y251" s="3"/>
+      <c r="Z251" s="3"/>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>44149</v>
       </c>
@@ -11829,8 +15419,22 @@
         <f t="shared" si="27"/>
         <v>0.15069733743886976</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M252" s="3"/>
+      <c r="N252" s="3"/>
+      <c r="O252" s="3"/>
+      <c r="P252" s="3"/>
+      <c r="Q252" s="3"/>
+      <c r="R252" s="3"/>
+      <c r="S252" s="3"/>
+      <c r="T252" s="3"/>
+      <c r="U252" s="3"/>
+      <c r="V252" s="3"/>
+      <c r="W252" s="3"/>
+      <c r="X252" s="3"/>
+      <c r="Y252" s="3"/>
+      <c r="Z252" s="3"/>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>44150</v>
       </c>
@@ -11874,8 +15478,22 @@
         <f t="shared" si="27"/>
         <v>0.13567534827377348</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M253" s="3"/>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
+      <c r="P253" s="3"/>
+      <c r="Q253" s="3"/>
+      <c r="R253" s="3"/>
+      <c r="S253" s="3"/>
+      <c r="T253" s="3"/>
+      <c r="U253" s="3"/>
+      <c r="V253" s="3"/>
+      <c r="W253" s="3"/>
+      <c r="X253" s="3"/>
+      <c r="Y253" s="3"/>
+      <c r="Z253" s="3"/>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>44151</v>
       </c>
@@ -11919,8 +15537,22 @@
         <f t="shared" si="27"/>
         <v>0.14044321329639889</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M254" s="3"/>
+      <c r="N254" s="3"/>
+      <c r="O254" s="3"/>
+      <c r="P254" s="3"/>
+      <c r="Q254" s="3"/>
+      <c r="R254" s="3"/>
+      <c r="S254" s="3"/>
+      <c r="T254" s="3"/>
+      <c r="U254" s="3"/>
+      <c r="V254" s="3"/>
+      <c r="W254" s="3"/>
+      <c r="X254" s="3"/>
+      <c r="Y254" s="3"/>
+      <c r="Z254" s="3"/>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>44152</v>
       </c>
@@ -11964,8 +15596,22 @@
         <f t="shared" si="27"/>
         <v>0.11779168529280286</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M255" s="3"/>
+      <c r="N255" s="3"/>
+      <c r="O255" s="3"/>
+      <c r="P255" s="3"/>
+      <c r="Q255" s="3"/>
+      <c r="R255" s="3"/>
+      <c r="S255" s="3"/>
+      <c r="T255" s="3"/>
+      <c r="U255" s="3"/>
+      <c r="V255" s="3"/>
+      <c r="W255" s="3"/>
+      <c r="X255" s="3"/>
+      <c r="Y255" s="3"/>
+      <c r="Z255" s="3"/>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>44153</v>
       </c>
@@ -12009,8 +15655,22 @@
         <f t="shared" si="27"/>
         <v>0.12080391091797936</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M256" s="3"/>
+      <c r="N256" s="3"/>
+      <c r="O256" s="3"/>
+      <c r="P256" s="3"/>
+      <c r="Q256" s="3"/>
+      <c r="R256" s="3"/>
+      <c r="S256" s="3"/>
+      <c r="T256" s="3"/>
+      <c r="U256" s="3"/>
+      <c r="V256" s="3"/>
+      <c r="W256" s="3"/>
+      <c r="X256" s="3"/>
+      <c r="Y256" s="3"/>
+      <c r="Z256" s="3"/>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>44154</v>
       </c>
@@ -12054,8 +15714,22 @@
         <f t="shared" si="27"/>
         <v>0.11832312764955252</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M257" s="3"/>
+      <c r="N257" s="3"/>
+      <c r="O257" s="3"/>
+      <c r="P257" s="3"/>
+      <c r="Q257" s="3"/>
+      <c r="R257" s="3"/>
+      <c r="S257" s="3"/>
+      <c r="T257" s="3"/>
+      <c r="U257" s="3"/>
+      <c r="V257" s="3"/>
+      <c r="W257" s="3"/>
+      <c r="X257" s="3"/>
+      <c r="Y257" s="3"/>
+      <c r="Z257" s="3"/>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>44155</v>
       </c>
@@ -12084,23 +15758,37 @@
         <v>132748</v>
       </c>
       <c r="I258" s="3">
-        <f t="shared" ref="I258:I311" si="31">D258-F258-H258</f>
+        <f t="shared" ref="I258:I312" si="31">D258-F258-H258</f>
         <v>16609</v>
       </c>
       <c r="J258" s="5">
-        <f t="shared" ref="J258:J311" si="32">F258/D258</f>
+        <f t="shared" ref="J258:J312" si="32">F258/D258</f>
         <v>1.92528679024749E-2</v>
       </c>
       <c r="K258" s="6">
-        <f t="shared" ref="K258:K311" si="33">H258/D258</f>
+        <f t="shared" ref="K258:K312" si="33">H258/D258</f>
         <v>0.87168475727071559</v>
       </c>
       <c r="L258" s="6">
-        <f t="shared" ref="L258:L311" si="34">C258/B258</f>
+        <f t="shared" ref="L258:L312" si="34">C258/B258</f>
         <v>0.12179031766974525</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
+      <c r="P258" s="3"/>
+      <c r="Q258" s="3"/>
+      <c r="R258" s="3"/>
+      <c r="S258" s="3"/>
+      <c r="T258" s="3"/>
+      <c r="U258" s="3"/>
+      <c r="V258" s="3"/>
+      <c r="W258" s="3"/>
+      <c r="X258" s="3"/>
+      <c r="Y258" s="3"/>
+      <c r="Z258" s="3"/>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>44156</v>
       </c>
@@ -12144,8 +15832,22 @@
         <f t="shared" si="34"/>
         <v>0.11614066726780883</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M259" s="3"/>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
+      <c r="P259" s="3"/>
+      <c r="Q259" s="3"/>
+      <c r="R259" s="3"/>
+      <c r="S259" s="3"/>
+      <c r="T259" s="3"/>
+      <c r="U259" s="3"/>
+      <c r="V259" s="3"/>
+      <c r="W259" s="3"/>
+      <c r="X259" s="3"/>
+      <c r="Y259" s="3"/>
+      <c r="Z259" s="3"/>
+    </row>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>44157</v>
       </c>
@@ -12189,8 +15891,22 @@
         <f t="shared" si="34"/>
         <v>0.12476722532588454</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
+      <c r="O260" s="3"/>
+      <c r="P260" s="3"/>
+      <c r="Q260" s="3"/>
+      <c r="R260" s="3"/>
+      <c r="S260" s="3"/>
+      <c r="T260" s="3"/>
+      <c r="U260" s="3"/>
+      <c r="V260" s="3"/>
+      <c r="W260" s="3"/>
+      <c r="X260" s="3"/>
+      <c r="Y260" s="3"/>
+      <c r="Z260" s="3"/>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>44158</v>
       </c>
@@ -12234,8 +15950,22 @@
         <f t="shared" si="34"/>
         <v>0.12677484787018256</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M261" s="3"/>
+      <c r="N261" s="3"/>
+      <c r="O261" s="3"/>
+      <c r="P261" s="3"/>
+      <c r="Q261" s="3"/>
+      <c r="R261" s="3"/>
+      <c r="S261" s="3"/>
+      <c r="T261" s="3"/>
+      <c r="U261" s="3"/>
+      <c r="V261" s="3"/>
+      <c r="W261" s="3"/>
+      <c r="X261" s="3"/>
+      <c r="Y261" s="3"/>
+      <c r="Z261" s="3"/>
+    </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>44159</v>
       </c>
@@ -12279,8 +16009,22 @@
         <f t="shared" si="34"/>
         <v>0.13222453222453223</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M262" s="3"/>
+      <c r="N262" s="3"/>
+      <c r="O262" s="3"/>
+      <c r="P262" s="3"/>
+      <c r="Q262" s="3"/>
+      <c r="R262" s="3"/>
+      <c r="S262" s="3"/>
+      <c r="T262" s="3"/>
+      <c r="U262" s="3"/>
+      <c r="V262" s="3"/>
+      <c r="W262" s="3"/>
+      <c r="X262" s="3"/>
+      <c r="Y262" s="3"/>
+      <c r="Z262" s="3"/>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>44160</v>
       </c>
@@ -12324,8 +16068,22 @@
         <f t="shared" si="34"/>
         <v>0.16055321707757064</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M263" s="3"/>
+      <c r="N263" s="3"/>
+      <c r="O263" s="3"/>
+      <c r="P263" s="3"/>
+      <c r="Q263" s="3"/>
+      <c r="R263" s="3"/>
+      <c r="S263" s="3"/>
+      <c r="T263" s="3"/>
+      <c r="U263" s="3"/>
+      <c r="V263" s="3"/>
+      <c r="W263" s="3"/>
+      <c r="X263" s="3"/>
+      <c r="Y263" s="3"/>
+      <c r="Z263" s="3"/>
+    </row>
+    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>44161</v>
       </c>
@@ -12369,8 +16127,22 @@
         <f t="shared" si="34"/>
         <v>0.15993802970928642</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M264" s="3"/>
+      <c r="N264" s="3"/>
+      <c r="O264" s="3"/>
+      <c r="P264" s="3"/>
+      <c r="Q264" s="3"/>
+      <c r="R264" s="3"/>
+      <c r="S264" s="3"/>
+      <c r="T264" s="3"/>
+      <c r="U264" s="3"/>
+      <c r="V264" s="3"/>
+      <c r="W264" s="3"/>
+      <c r="X264" s="3"/>
+      <c r="Y264" s="3"/>
+      <c r="Z264" s="3"/>
+    </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>44162</v>
       </c>
@@ -12414,8 +16186,22 @@
         <f t="shared" si="34"/>
         <v>0.13199855046204023</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M265" s="3"/>
+      <c r="N265" s="3"/>
+      <c r="O265" s="3"/>
+      <c r="P265" s="3"/>
+      <c r="Q265" s="3"/>
+      <c r="R265" s="3"/>
+      <c r="S265" s="3"/>
+      <c r="T265" s="3"/>
+      <c r="U265" s="3"/>
+      <c r="V265" s="3"/>
+      <c r="W265" s="3"/>
+      <c r="X265" s="3"/>
+      <c r="Y265" s="3"/>
+      <c r="Z265" s="3"/>
+    </row>
+    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>44163</v>
       </c>
@@ -12459,8 +16245,22 @@
         <f t="shared" si="34"/>
         <v>0.15627286027798098</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M266" s="3"/>
+      <c r="N266" s="3"/>
+      <c r="O266" s="3"/>
+      <c r="P266" s="3"/>
+      <c r="Q266" s="3"/>
+      <c r="R266" s="3"/>
+      <c r="S266" s="3"/>
+      <c r="T266" s="3"/>
+      <c r="U266" s="3"/>
+      <c r="V266" s="3"/>
+      <c r="W266" s="3"/>
+      <c r="X266" s="3"/>
+      <c r="Y266" s="3"/>
+      <c r="Z266" s="3"/>
+    </row>
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>44164</v>
       </c>
@@ -12504,8 +16304,22 @@
         <f t="shared" si="34"/>
         <v>0.14670039089445849</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M267" s="3"/>
+      <c r="N267" s="3"/>
+      <c r="O267" s="3"/>
+      <c r="P267" s="3"/>
+      <c r="Q267" s="3"/>
+      <c r="R267" s="3"/>
+      <c r="S267" s="3"/>
+      <c r="T267" s="3"/>
+      <c r="U267" s="3"/>
+      <c r="V267" s="3"/>
+      <c r="W267" s="3"/>
+      <c r="X267" s="3"/>
+      <c r="Y267" s="3"/>
+      <c r="Z267" s="3"/>
+    </row>
+    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>44165</v>
       </c>
@@ -12549,8 +16363,22 @@
         <f t="shared" si="34"/>
         <v>0.1525279705424161</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M268" s="3"/>
+      <c r="N268" s="3"/>
+      <c r="O268" s="3"/>
+      <c r="P268" s="3"/>
+      <c r="Q268" s="3"/>
+      <c r="R268" s="3"/>
+      <c r="S268" s="3"/>
+      <c r="T268" s="3"/>
+      <c r="U268" s="3"/>
+      <c r="V268" s="3"/>
+      <c r="W268" s="3"/>
+      <c r="X268" s="3"/>
+      <c r="Y268" s="3"/>
+      <c r="Z268" s="3"/>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>44166</v>
       </c>
@@ -12594,8 +16422,22 @@
         <f t="shared" si="34"/>
         <v>0.16469687021230028</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M269" s="3"/>
+      <c r="N269" s="3"/>
+      <c r="O269" s="3"/>
+      <c r="P269" s="3"/>
+      <c r="Q269" s="3"/>
+      <c r="R269" s="3"/>
+      <c r="S269" s="3"/>
+      <c r="T269" s="3"/>
+      <c r="U269" s="3"/>
+      <c r="V269" s="3"/>
+      <c r="W269" s="3"/>
+      <c r="X269" s="3"/>
+      <c r="Y269" s="3"/>
+      <c r="Z269" s="3"/>
+    </row>
+    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>44167</v>
       </c>
@@ -12639,8 +16481,22 @@
         <f t="shared" si="34"/>
         <v>0.18619170033051782</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M270" s="3"/>
+      <c r="N270" s="3"/>
+      <c r="O270" s="3"/>
+      <c r="P270" s="3"/>
+      <c r="Q270" s="3"/>
+      <c r="R270" s="3"/>
+      <c r="S270" s="3"/>
+      <c r="T270" s="3"/>
+      <c r="U270" s="3"/>
+      <c r="V270" s="3"/>
+      <c r="W270" s="3"/>
+      <c r="X270" s="3"/>
+      <c r="Y270" s="3"/>
+      <c r="Z270" s="3"/>
+    </row>
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>44168</v>
       </c>
@@ -12684,8 +16540,22 @@
         <f t="shared" si="34"/>
         <v>0.12577774804308556</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M271" s="3"/>
+      <c r="N271" s="3"/>
+      <c r="O271" s="3"/>
+      <c r="P271" s="3"/>
+      <c r="Q271" s="3"/>
+      <c r="R271" s="3"/>
+      <c r="S271" s="3"/>
+      <c r="T271" s="3"/>
+      <c r="U271" s="3"/>
+      <c r="V271" s="3"/>
+      <c r="W271" s="3"/>
+      <c r="X271" s="3"/>
+      <c r="Y271" s="3"/>
+      <c r="Z271" s="3"/>
+    </row>
+    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>44169</v>
       </c>
@@ -12729,8 +16599,22 @@
         <f t="shared" si="34"/>
         <v>0.17818236084166542</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M272" s="3"/>
+      <c r="N272" s="3"/>
+      <c r="O272" s="3"/>
+      <c r="P272" s="3"/>
+      <c r="Q272" s="3"/>
+      <c r="R272" s="3"/>
+      <c r="S272" s="3"/>
+      <c r="T272" s="3"/>
+      <c r="U272" s="3"/>
+      <c r="V272" s="3"/>
+      <c r="W272" s="3"/>
+      <c r="X272" s="3"/>
+      <c r="Y272" s="3"/>
+      <c r="Z272" s="3"/>
+    </row>
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>44170</v>
       </c>
@@ -12774,8 +16658,22 @@
         <f t="shared" si="34"/>
         <v>0.15408320493066255</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M273" s="3"/>
+      <c r="N273" s="3"/>
+      <c r="O273" s="3"/>
+      <c r="P273" s="3"/>
+      <c r="Q273" s="3"/>
+      <c r="R273" s="3"/>
+      <c r="S273" s="3"/>
+      <c r="T273" s="3"/>
+      <c r="U273" s="3"/>
+      <c r="V273" s="3"/>
+      <c r="W273" s="3"/>
+      <c r="X273" s="3"/>
+      <c r="Y273" s="3"/>
+      <c r="Z273" s="3"/>
+    </row>
+    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>44171</v>
       </c>
@@ -12819,8 +16717,22 @@
         <f t="shared" si="34"/>
         <v>0.19077700568540745</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M274" s="3"/>
+      <c r="N274" s="3"/>
+      <c r="O274" s="3"/>
+      <c r="P274" s="3"/>
+      <c r="Q274" s="3"/>
+      <c r="R274" s="3"/>
+      <c r="S274" s="3"/>
+      <c r="T274" s="3"/>
+      <c r="U274" s="3"/>
+      <c r="V274" s="3"/>
+      <c r="W274" s="3"/>
+      <c r="X274" s="3"/>
+      <c r="Y274" s="3"/>
+      <c r="Z274" s="3"/>
+    </row>
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>44172</v>
       </c>
@@ -12864,8 +16776,22 @@
         <f t="shared" si="34"/>
         <v>0.18958594730238393</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M275" s="3"/>
+      <c r="N275" s="3"/>
+      <c r="O275" s="3"/>
+      <c r="P275" s="3"/>
+      <c r="Q275" s="3"/>
+      <c r="R275" s="3"/>
+      <c r="S275" s="3"/>
+      <c r="T275" s="3"/>
+      <c r="U275" s="3"/>
+      <c r="V275" s="3"/>
+      <c r="W275" s="3"/>
+      <c r="X275" s="3"/>
+      <c r="Y275" s="3"/>
+      <c r="Z275" s="3"/>
+    </row>
+    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>44173</v>
       </c>
@@ -12909,8 +16835,22 @@
         <f t="shared" si="34"/>
         <v>0.17202772347609738</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M276" s="3"/>
+      <c r="N276" s="3"/>
+      <c r="O276" s="3"/>
+      <c r="P276" s="3"/>
+      <c r="Q276" s="3"/>
+      <c r="R276" s="3"/>
+      <c r="S276" s="3"/>
+      <c r="T276" s="3"/>
+      <c r="U276" s="3"/>
+      <c r="V276" s="3"/>
+      <c r="W276" s="3"/>
+      <c r="X276" s="3"/>
+      <c r="Y276" s="3"/>
+      <c r="Z276" s="3"/>
+    </row>
+    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>44174</v>
       </c>
@@ -12954,8 +16894,22 @@
         <f t="shared" si="34"/>
         <v>0.21856142891624428</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M277" s="3"/>
+      <c r="N277" s="3"/>
+      <c r="O277" s="3"/>
+      <c r="P277" s="3"/>
+      <c r="Q277" s="3"/>
+      <c r="R277" s="3"/>
+      <c r="S277" s="3"/>
+      <c r="T277" s="3"/>
+      <c r="U277" s="3"/>
+      <c r="V277" s="3"/>
+      <c r="W277" s="3"/>
+      <c r="X277" s="3"/>
+      <c r="Y277" s="3"/>
+      <c r="Z277" s="3"/>
+    </row>
+    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>44175</v>
       </c>
@@ -12999,8 +16953,22 @@
         <f t="shared" si="34"/>
         <v>0.1839987969020227</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M278" s="3"/>
+      <c r="N278" s="3"/>
+      <c r="O278" s="3"/>
+      <c r="P278" s="3"/>
+      <c r="Q278" s="3"/>
+      <c r="R278" s="3"/>
+      <c r="S278" s="3"/>
+      <c r="T278" s="3"/>
+      <c r="U278" s="3"/>
+      <c r="V278" s="3"/>
+      <c r="W278" s="3"/>
+      <c r="X278" s="3"/>
+      <c r="Y278" s="3"/>
+      <c r="Z278" s="3"/>
+    </row>
+    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>44176</v>
       </c>
@@ -13044,8 +17012,22 @@
         <f t="shared" si="34"/>
         <v>0.15945561649400772</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M279" s="3"/>
+      <c r="N279" s="3"/>
+      <c r="O279" s="3"/>
+      <c r="P279" s="3"/>
+      <c r="Q279" s="3"/>
+      <c r="R279" s="3"/>
+      <c r="S279" s="3"/>
+      <c r="T279" s="3"/>
+      <c r="U279" s="3"/>
+      <c r="V279" s="3"/>
+      <c r="W279" s="3"/>
+      <c r="X279" s="3"/>
+      <c r="Y279" s="3"/>
+      <c r="Z279" s="3"/>
+    </row>
+    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>44177</v>
       </c>
@@ -13089,8 +17071,22 @@
         <f t="shared" si="34"/>
         <v>0.17109756097560977</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M280" s="3"/>
+      <c r="N280" s="3"/>
+      <c r="O280" s="3"/>
+      <c r="P280" s="3"/>
+      <c r="Q280" s="3"/>
+      <c r="R280" s="3"/>
+      <c r="S280" s="3"/>
+      <c r="T280" s="3"/>
+      <c r="U280" s="3"/>
+      <c r="V280" s="3"/>
+      <c r="W280" s="3"/>
+      <c r="X280" s="3"/>
+      <c r="Y280" s="3"/>
+      <c r="Z280" s="3"/>
+    </row>
+    <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>44178</v>
       </c>
@@ -13134,8 +17130,22 @@
         <f t="shared" si="34"/>
         <v>0.20129654255319149</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M281" s="3"/>
+      <c r="N281" s="3"/>
+      <c r="O281" s="3"/>
+      <c r="P281" s="3"/>
+      <c r="Q281" s="3"/>
+      <c r="R281" s="3"/>
+      <c r="S281" s="3"/>
+      <c r="T281" s="3"/>
+      <c r="U281" s="3"/>
+      <c r="V281" s="3"/>
+      <c r="W281" s="3"/>
+      <c r="X281" s="3"/>
+      <c r="Y281" s="3"/>
+      <c r="Z281" s="3"/>
+    </row>
+    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>44179</v>
       </c>
@@ -13179,8 +17189,22 @@
         <f t="shared" si="34"/>
         <v>0.16844305120167188</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M282" s="3"/>
+      <c r="N282" s="3"/>
+      <c r="O282" s="3"/>
+      <c r="P282" s="3"/>
+      <c r="Q282" s="3"/>
+      <c r="R282" s="3"/>
+      <c r="S282" s="3"/>
+      <c r="T282" s="3"/>
+      <c r="U282" s="3"/>
+      <c r="V282" s="3"/>
+      <c r="W282" s="3"/>
+      <c r="X282" s="3"/>
+      <c r="Y282" s="3"/>
+      <c r="Z282" s="3"/>
+    </row>
+    <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>44180</v>
       </c>
@@ -13224,8 +17248,22 @@
         <f t="shared" si="34"/>
         <v>0.1905988409529942</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M283" s="3"/>
+      <c r="N283" s="3"/>
+      <c r="O283" s="3"/>
+      <c r="P283" s="3"/>
+      <c r="Q283" s="3"/>
+      <c r="R283" s="3"/>
+      <c r="S283" s="3"/>
+      <c r="T283" s="3"/>
+      <c r="U283" s="3"/>
+      <c r="V283" s="3"/>
+      <c r="W283" s="3"/>
+      <c r="X283" s="3"/>
+      <c r="Y283" s="3"/>
+      <c r="Z283" s="3"/>
+    </row>
+    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>44181</v>
       </c>
@@ -13269,8 +17307,22 @@
         <f t="shared" si="34"/>
         <v>0.21171590015020386</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M284" s="3"/>
+      <c r="N284" s="3"/>
+      <c r="O284" s="3"/>
+      <c r="P284" s="3"/>
+      <c r="Q284" s="3"/>
+      <c r="R284" s="3"/>
+      <c r="S284" s="3"/>
+      <c r="T284" s="3"/>
+      <c r="U284" s="3"/>
+      <c r="V284" s="3"/>
+      <c r="W284" s="3"/>
+      <c r="X284" s="3"/>
+      <c r="Y284" s="3"/>
+      <c r="Z284" s="3"/>
+    </row>
+    <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>44182</v>
       </c>
@@ -13314,8 +17366,22 @@
         <f t="shared" si="34"/>
         <v>0.20715258012622201</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M285" s="3"/>
+      <c r="N285" s="3"/>
+      <c r="O285" s="3"/>
+      <c r="P285" s="3"/>
+      <c r="Q285" s="3"/>
+      <c r="R285" s="3"/>
+      <c r="S285" s="3"/>
+      <c r="T285" s="3"/>
+      <c r="U285" s="3"/>
+      <c r="V285" s="3"/>
+      <c r="W285" s="3"/>
+      <c r="X285" s="3"/>
+      <c r="Y285" s="3"/>
+      <c r="Z285" s="3"/>
+    </row>
+    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>44183</v>
       </c>
@@ -13359,8 +17425,22 @@
         <f t="shared" si="34"/>
         <v>0.1853901494189264</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M286" s="3"/>
+      <c r="N286" s="3"/>
+      <c r="O286" s="3"/>
+      <c r="P286" s="3"/>
+      <c r="Q286" s="3"/>
+      <c r="R286" s="3"/>
+      <c r="S286" s="3"/>
+      <c r="T286" s="3"/>
+      <c r="U286" s="3"/>
+      <c r="V286" s="3"/>
+      <c r="W286" s="3"/>
+      <c r="X286" s="3"/>
+      <c r="Y286" s="3"/>
+      <c r="Z286" s="3"/>
+    </row>
+    <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>44184</v>
       </c>
@@ -13404,8 +17484,22 @@
         <f t="shared" si="34"/>
         <v>0.18725692061313201</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M287" s="3"/>
+      <c r="N287" s="3"/>
+      <c r="O287" s="3"/>
+      <c r="P287" s="3"/>
+      <c r="Q287" s="3"/>
+      <c r="R287" s="3"/>
+      <c r="S287" s="3"/>
+      <c r="T287" s="3"/>
+      <c r="U287" s="3"/>
+      <c r="V287" s="3"/>
+      <c r="W287" s="3"/>
+      <c r="X287" s="3"/>
+      <c r="Y287" s="3"/>
+      <c r="Z287" s="3"/>
+    </row>
+    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>44185</v>
       </c>
@@ -13449,8 +17543,22 @@
         <f t="shared" si="34"/>
         <v>0.19920462762111352</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M288" s="3"/>
+      <c r="N288" s="3"/>
+      <c r="O288" s="3"/>
+      <c r="P288" s="3"/>
+      <c r="Q288" s="3"/>
+      <c r="R288" s="3"/>
+      <c r="S288" s="3"/>
+      <c r="T288" s="3"/>
+      <c r="U288" s="3"/>
+      <c r="V288" s="3"/>
+      <c r="W288" s="3"/>
+      <c r="X288" s="3"/>
+      <c r="Y288" s="3"/>
+      <c r="Z288" s="3"/>
+    </row>
+    <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>44186</v>
       </c>
@@ -13494,8 +17602,22 @@
         <f t="shared" si="34"/>
         <v>0.16421805528706745</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M289" s="3"/>
+      <c r="N289" s="3"/>
+      <c r="O289" s="3"/>
+      <c r="P289" s="3"/>
+      <c r="Q289" s="3"/>
+      <c r="R289" s="3"/>
+      <c r="S289" s="3"/>
+      <c r="T289" s="3"/>
+      <c r="U289" s="3"/>
+      <c r="V289" s="3"/>
+      <c r="W289" s="3"/>
+      <c r="X289" s="3"/>
+      <c r="Y289" s="3"/>
+      <c r="Z289" s="3"/>
+    </row>
+    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>44187</v>
       </c>
@@ -13539,8 +17661,22 @@
         <f t="shared" si="34"/>
         <v>0.19362340126063277</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M290" s="3"/>
+      <c r="N290" s="3"/>
+      <c r="O290" s="3"/>
+      <c r="P290" s="3"/>
+      <c r="Q290" s="3"/>
+      <c r="R290" s="3"/>
+      <c r="S290" s="3"/>
+      <c r="T290" s="3"/>
+      <c r="U290" s="3"/>
+      <c r="V290" s="3"/>
+      <c r="W290" s="3"/>
+      <c r="X290" s="3"/>
+      <c r="Y290" s="3"/>
+      <c r="Z290" s="3"/>
+    </row>
+    <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>44188</v>
       </c>
@@ -13584,8 +17720,22 @@
         <f t="shared" si="34"/>
         <v>0.21483250228246364</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M291" s="3"/>
+      <c r="N291" s="3"/>
+      <c r="O291" s="3"/>
+      <c r="P291" s="3"/>
+      <c r="Q291" s="3"/>
+      <c r="R291" s="3"/>
+      <c r="S291" s="3"/>
+      <c r="T291" s="3"/>
+      <c r="U291" s="3"/>
+      <c r="V291" s="3"/>
+      <c r="W291" s="3"/>
+      <c r="X291" s="3"/>
+      <c r="Y291" s="3"/>
+      <c r="Z291" s="3"/>
+    </row>
+    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>44189</v>
       </c>
@@ -13629,8 +17779,22 @@
         <f t="shared" si="34"/>
         <v>0.20842748091603053</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M292" s="3"/>
+      <c r="N292" s="3"/>
+      <c r="O292" s="3"/>
+      <c r="P292" s="3"/>
+      <c r="Q292" s="3"/>
+      <c r="R292" s="3"/>
+      <c r="S292" s="3"/>
+      <c r="T292" s="3"/>
+      <c r="U292" s="3"/>
+      <c r="V292" s="3"/>
+      <c r="W292" s="3"/>
+      <c r="X292" s="3"/>
+      <c r="Y292" s="3"/>
+      <c r="Z292" s="3"/>
+    </row>
+    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>44190</v>
       </c>
@@ -13674,8 +17838,22 @@
         <f t="shared" si="34"/>
         <v>0.26239015817223199</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M293" s="3"/>
+      <c r="N293" s="3"/>
+      <c r="O293" s="3"/>
+      <c r="P293" s="3"/>
+      <c r="Q293" s="3"/>
+      <c r="R293" s="3"/>
+      <c r="S293" s="3"/>
+      <c r="T293" s="3"/>
+      <c r="U293" s="3"/>
+      <c r="V293" s="3"/>
+      <c r="W293" s="3"/>
+      <c r="X293" s="3"/>
+      <c r="Y293" s="3"/>
+      <c r="Z293" s="3"/>
+    </row>
+    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>44191</v>
       </c>
@@ -13719,8 +17897,22 @@
         <f t="shared" si="34"/>
         <v>0.21102136795828647</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M294" s="3"/>
+      <c r="N294" s="3"/>
+      <c r="O294" s="3"/>
+      <c r="P294" s="3"/>
+      <c r="Q294" s="3"/>
+      <c r="R294" s="3"/>
+      <c r="S294" s="3"/>
+      <c r="T294" s="3"/>
+      <c r="U294" s="3"/>
+      <c r="V294" s="3"/>
+      <c r="W294" s="3"/>
+      <c r="X294" s="3"/>
+      <c r="Y294" s="3"/>
+      <c r="Z294" s="3"/>
+    </row>
+    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>44192</v>
       </c>
@@ -13764,8 +17956,22 @@
         <f t="shared" si="34"/>
         <v>0.26782626385922081</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="3"/>
+      <c r="Q295" s="3"/>
+      <c r="R295" s="3"/>
+      <c r="S295" s="3"/>
+      <c r="T295" s="3"/>
+      <c r="U295" s="3"/>
+      <c r="V295" s="3"/>
+      <c r="W295" s="3"/>
+      <c r="X295" s="3"/>
+      <c r="Y295" s="3"/>
+      <c r="Z295" s="3"/>
+    </row>
+    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>44193</v>
       </c>
@@ -13809,8 +18015,22 @@
         <f t="shared" si="34"/>
         <v>0.30406630406630408</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M296" s="3"/>
+      <c r="N296" s="3"/>
+      <c r="O296" s="3"/>
+      <c r="P296" s="3"/>
+      <c r="Q296" s="3"/>
+      <c r="R296" s="3"/>
+      <c r="S296" s="3"/>
+      <c r="T296" s="3"/>
+      <c r="U296" s="3"/>
+      <c r="V296" s="3"/>
+      <c r="W296" s="3"/>
+      <c r="X296" s="3"/>
+      <c r="Y296" s="3"/>
+      <c r="Z296" s="3"/>
+    </row>
+    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>44194</v>
       </c>
@@ -13854,8 +18074,22 @@
         <f t="shared" si="34"/>
         <v>0.28603589519104494</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M297" s="3"/>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3"/>
+      <c r="P297" s="3"/>
+      <c r="Q297" s="3"/>
+      <c r="R297" s="3"/>
+      <c r="S297" s="3"/>
+      <c r="T297" s="3"/>
+      <c r="U297" s="3"/>
+      <c r="V297" s="3"/>
+      <c r="W297" s="3"/>
+      <c r="X297" s="3"/>
+      <c r="Y297" s="3"/>
+      <c r="Z297" s="3"/>
+    </row>
+    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>44195</v>
       </c>
@@ -13899,8 +18133,22 @@
         <f t="shared" si="34"/>
         <v>0.28275600025330883</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M298" s="3"/>
+      <c r="N298" s="3"/>
+      <c r="O298" s="3"/>
+      <c r="P298" s="3"/>
+      <c r="Q298" s="3"/>
+      <c r="R298" s="3"/>
+      <c r="S298" s="3"/>
+      <c r="T298" s="3"/>
+      <c r="U298" s="3"/>
+      <c r="V298" s="3"/>
+      <c r="W298" s="3"/>
+      <c r="X298" s="3"/>
+      <c r="Y298" s="3"/>
+      <c r="Z298" s="3"/>
+    </row>
+    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>44196</v>
       </c>
@@ -13944,8 +18192,22 @@
         <f t="shared" si="34"/>
         <v>0.28052416279553494</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M299" s="3"/>
+      <c r="N299" s="3"/>
+      <c r="O299" s="3"/>
+      <c r="P299" s="3"/>
+      <c r="Q299" s="3"/>
+      <c r="R299" s="3"/>
+      <c r="S299" s="3"/>
+      <c r="T299" s="3"/>
+      <c r="U299" s="3"/>
+      <c r="V299" s="3"/>
+      <c r="W299" s="3"/>
+      <c r="X299" s="3"/>
+      <c r="Y299" s="3"/>
+      <c r="Z299" s="3"/>
+    </row>
+    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -13989,8 +18251,22 @@
         <f t="shared" si="34"/>
         <v>0.26051164025847567</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M300" s="3"/>
+      <c r="N300" s="3"/>
+      <c r="O300" s="3"/>
+      <c r="P300" s="3"/>
+      <c r="Q300" s="3"/>
+      <c r="R300" s="3"/>
+      <c r="S300" s="3"/>
+      <c r="T300" s="3"/>
+      <c r="U300" s="3"/>
+      <c r="V300" s="3"/>
+      <c r="W300" s="3"/>
+      <c r="X300" s="3"/>
+      <c r="Y300" s="3"/>
+      <c r="Z300" s="3"/>
+    </row>
+    <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>44198</v>
       </c>
@@ -14034,8 +18310,22 @@
         <f t="shared" si="34"/>
         <v>0.2962800875273523</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M301" s="3"/>
+      <c r="N301" s="3"/>
+      <c r="O301" s="3"/>
+      <c r="P301" s="3"/>
+      <c r="Q301" s="3"/>
+      <c r="R301" s="3"/>
+      <c r="S301" s="3"/>
+      <c r="T301" s="3"/>
+      <c r="U301" s="3"/>
+      <c r="V301" s="3"/>
+      <c r="W301" s="3"/>
+      <c r="X301" s="3"/>
+      <c r="Y301" s="3"/>
+      <c r="Z301" s="3"/>
+    </row>
+    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>44199</v>
       </c>
@@ -14078,8 +18368,22 @@
         <f t="shared" si="34"/>
         <v>0.25159479459045675</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M302" s="3"/>
+      <c r="N302" s="3"/>
+      <c r="O302" s="3"/>
+      <c r="P302" s="3"/>
+      <c r="Q302" s="3"/>
+      <c r="R302" s="3"/>
+      <c r="S302" s="3"/>
+      <c r="T302" s="3"/>
+      <c r="U302" s="3"/>
+      <c r="V302" s="3"/>
+      <c r="W302" s="3"/>
+      <c r="X302" s="3"/>
+      <c r="Y302" s="3"/>
+      <c r="Z302" s="3"/>
+    </row>
+    <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>44200</v>
       </c>
@@ -14122,8 +18426,22 @@
         <f t="shared" si="34"/>
         <v>0.2262747232807113</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M303" s="3"/>
+      <c r="N303" s="3"/>
+      <c r="O303" s="3"/>
+      <c r="P303" s="3"/>
+      <c r="Q303" s="3"/>
+      <c r="R303" s="3"/>
+      <c r="S303" s="3"/>
+      <c r="T303" s="3"/>
+      <c r="U303" s="3"/>
+      <c r="V303" s="3"/>
+      <c r="W303" s="3"/>
+      <c r="X303" s="3"/>
+      <c r="Y303" s="3"/>
+      <c r="Z303" s="3"/>
+    </row>
+    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>44201</v>
       </c>
@@ -14166,8 +18484,22 @@
         <f t="shared" si="34"/>
         <v>0.28855559178350182</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M304" s="3"/>
+      <c r="N304" s="3"/>
+      <c r="O304" s="3"/>
+      <c r="P304" s="3"/>
+      <c r="Q304" s="3"/>
+      <c r="R304" s="3"/>
+      <c r="S304" s="3"/>
+      <c r="T304" s="3"/>
+      <c r="U304" s="3"/>
+      <c r="V304" s="3"/>
+      <c r="W304" s="3"/>
+      <c r="X304" s="3"/>
+      <c r="Y304" s="3"/>
+      <c r="Z304" s="3"/>
+    </row>
+    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>44202</v>
       </c>
@@ -14192,7 +18524,7 @@
         <v>2533</v>
       </c>
       <c r="H305" s="3">
-        <f t="shared" ref="H305:H311" si="38">H304+G305</f>
+        <f t="shared" ref="H305:H312" si="38">H304+G305</f>
         <v>208620</v>
       </c>
       <c r="I305" s="3">
@@ -14211,8 +18543,22 @@
         <f t="shared" si="34"/>
         <v>0.26152294503277862</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M305" s="3"/>
+      <c r="N305" s="3"/>
+      <c r="O305" s="3"/>
+      <c r="P305" s="3"/>
+      <c r="Q305" s="3"/>
+      <c r="R305" s="3"/>
+      <c r="S305" s="3"/>
+      <c r="T305" s="3"/>
+      <c r="U305" s="3"/>
+      <c r="V305" s="3"/>
+      <c r="W305" s="3"/>
+      <c r="X305" s="3"/>
+      <c r="Y305" s="3"/>
+      <c r="Z305" s="3"/>
+    </row>
+    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>44203</v>
       </c>
@@ -14256,8 +18602,22 @@
         <f t="shared" si="34"/>
         <v>0.25625929598413483</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M306" s="3"/>
+      <c r="N306" s="3"/>
+      <c r="O306" s="3"/>
+      <c r="P306" s="3"/>
+      <c r="Q306" s="3"/>
+      <c r="R306" s="3"/>
+      <c r="S306" s="3"/>
+      <c r="T306" s="3"/>
+      <c r="U306" s="3"/>
+      <c r="V306" s="3"/>
+      <c r="W306" s="3"/>
+      <c r="X306" s="3"/>
+      <c r="Y306" s="3"/>
+      <c r="Z306" s="3"/>
+    </row>
+    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>44204</v>
       </c>
@@ -14301,8 +18661,22 @@
         <f t="shared" si="34"/>
         <v>0.24403215831787262</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M307" s="3"/>
+      <c r="N307" s="3"/>
+      <c r="O307" s="3"/>
+      <c r="P307" s="3"/>
+      <c r="Q307" s="3"/>
+      <c r="R307" s="3"/>
+      <c r="S307" s="3"/>
+      <c r="T307" s="3"/>
+      <c r="U307" s="3"/>
+      <c r="V307" s="3"/>
+      <c r="W307" s="3"/>
+      <c r="X307" s="3"/>
+      <c r="Y307" s="3"/>
+      <c r="Z307" s="3"/>
+    </row>
+    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>44205</v>
       </c>
@@ -14346,8 +18720,22 @@
         <f t="shared" si="34"/>
         <v>0.22199108469539375</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M308" s="3"/>
+      <c r="N308" s="3"/>
+      <c r="O308" s="3"/>
+      <c r="P308" s="3"/>
+      <c r="Q308" s="3"/>
+      <c r="R308" s="3"/>
+      <c r="S308" s="3"/>
+      <c r="T308" s="3"/>
+      <c r="U308" s="3"/>
+      <c r="V308" s="3"/>
+      <c r="W308" s="3"/>
+      <c r="X308" s="3"/>
+      <c r="Y308" s="3"/>
+      <c r="Z308" s="3"/>
+    </row>
+    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>44206</v>
       </c>
@@ -14391,8 +18779,22 @@
         <f t="shared" si="34"/>
         <v>0.23332370776783137</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M309" s="3"/>
+      <c r="N309" s="3"/>
+      <c r="O309" s="3"/>
+      <c r="P309" s="3"/>
+      <c r="Q309" s="3"/>
+      <c r="R309" s="3"/>
+      <c r="S309" s="3"/>
+      <c r="T309" s="3"/>
+      <c r="U309" s="3"/>
+      <c r="V309" s="3"/>
+      <c r="W309" s="3"/>
+      <c r="X309" s="3"/>
+      <c r="Y309" s="3"/>
+      <c r="Z309" s="3"/>
+    </row>
+    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>44207</v>
       </c>
@@ -14436,8 +18838,22 @@
         <f t="shared" si="34"/>
         <v>0.23672080772607551</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M310" s="3"/>
+      <c r="N310" s="3"/>
+      <c r="O310" s="3"/>
+      <c r="P310" s="3"/>
+      <c r="Q310" s="3"/>
+      <c r="R310" s="3"/>
+      <c r="S310" s="3"/>
+      <c r="T310" s="3"/>
+      <c r="U310" s="3"/>
+      <c r="V310" s="3"/>
+      <c r="W310" s="3"/>
+      <c r="X310" s="3"/>
+      <c r="Y310" s="3"/>
+      <c r="Z310" s="3"/>
+    </row>
+    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>44208</v>
       </c>
@@ -14480,6 +18896,107 @@
       <c r="L311" s="8">
         <f t="shared" si="34"/>
         <v>0.21824123242107721</v>
+      </c>
+      <c r="M311" s="3"/>
+      <c r="N311" s="3"/>
+      <c r="O311" s="3"/>
+      <c r="P311" s="3"/>
+      <c r="Q311" s="3"/>
+      <c r="R311" s="3"/>
+      <c r="S311" s="3"/>
+      <c r="T311" s="3"/>
+      <c r="U311" s="3"/>
+      <c r="V311" s="3"/>
+      <c r="W311" s="3"/>
+      <c r="X311" s="3"/>
+      <c r="Y311" s="3"/>
+      <c r="Z311" s="3"/>
+    </row>
+    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A312" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B312" s="7">
+        <v>16267</v>
+      </c>
+      <c r="C312" s="7">
+        <v>3315</v>
+      </c>
+      <c r="D312" s="3">
+        <f>D311+C312</f>
+        <v>288408</v>
+      </c>
+      <c r="E312" s="7">
+        <v>33</v>
+      </c>
+      <c r="F312" s="7">
+        <f>F311+E312</f>
+        <v>4594</v>
+      </c>
+      <c r="G312" s="7">
+        <v>3506</v>
+      </c>
+      <c r="H312" s="3">
+        <f t="shared" si="38"/>
+        <v>227141</v>
+      </c>
+      <c r="I312" s="3">
+        <f t="shared" si="31"/>
+        <v>56673</v>
+      </c>
+      <c r="J312" s="5">
+        <f t="shared" si="32"/>
+        <v>1.5928823056225901E-2</v>
+      </c>
+      <c r="K312" s="6">
+        <f t="shared" si="33"/>
+        <v>0.78756830601092898</v>
+      </c>
+      <c r="L312" s="8">
+        <f t="shared" si="34"/>
+        <v>0.20378680764738427</v>
+      </c>
+      <c r="M312" s="3">
+        <v>49341</v>
+      </c>
+      <c r="N312" s="3">
+        <v>114556</v>
+      </c>
+      <c r="O312" s="3">
+        <v>84565</v>
+      </c>
+      <c r="P312" s="3">
+        <v>33134</v>
+      </c>
+      <c r="Q312" s="3">
+        <v>6812</v>
+      </c>
+      <c r="R312" s="3">
+        <v>29</v>
+      </c>
+      <c r="S312" s="3">
+        <v>210</v>
+      </c>
+      <c r="T312" s="3">
+        <v>915</v>
+      </c>
+      <c r="U312" s="3">
+        <v>2244</v>
+      </c>
+      <c r="V312" s="3">
+        <v>1196</v>
+      </c>
+      <c r="W312" s="3">
+        <v>229</v>
+      </c>
+      <c r="X312" s="3">
+        <v>2424</v>
+      </c>
+      <c r="Y312" s="3">
+        <v>691</v>
+      </c>
+      <c r="Z312" s="3">
+        <v>53329</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid_panama_new.xlsx
+++ b/data/covid_panama_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmlemus/covid19/covid19-panama/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF452B-07ED-B244-A80C-A714A7A27927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A5B5A7-788A-C146-A9DB-D52202CB964D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CE17F0A9-EE9F-7F40-AD90-5984D200C7B1}"/>
   </bookViews>
@@ -535,10 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B195D63B-8D96-B24C-BDA4-64FADF9A87BE}">
-  <dimension ref="A1:Z312"/>
+  <dimension ref="A1:Z316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="Y317" sqref="Y317"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L316" sqref="L316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15758,19 +15759,19 @@
         <v>132748</v>
       </c>
       <c r="I258" s="3">
-        <f t="shared" ref="I258:I312" si="31">D258-F258-H258</f>
+        <f t="shared" ref="I258:I316" si="31">D258-F258-H258</f>
         <v>16609</v>
       </c>
       <c r="J258" s="5">
-        <f t="shared" ref="J258:J312" si="32">F258/D258</f>
+        <f t="shared" ref="J258:J316" si="32">F258/D258</f>
         <v>1.92528679024749E-2</v>
       </c>
       <c r="K258" s="6">
-        <f t="shared" ref="K258:K312" si="33">H258/D258</f>
+        <f t="shared" ref="K258:K316" si="33">H258/D258</f>
         <v>0.87168475727071559</v>
       </c>
       <c r="L258" s="6">
-        <f t="shared" ref="L258:L312" si="34">C258/B258</f>
+        <f t="shared" ref="L258:L316" si="34">C258/B258</f>
         <v>0.12179031766974525</v>
       </c>
       <c r="M258" s="3"/>
@@ -18524,7 +18525,7 @@
         <v>2533</v>
       </c>
       <c r="H305" s="3">
-        <f t="shared" ref="H305:H312" si="38">H304+G305</f>
+        <f t="shared" ref="H305:H316" si="38">H304+G305</f>
         <v>208620</v>
       </c>
       <c r="I305" s="3">
@@ -18999,6 +19000,354 @@
         <v>53329</v>
       </c>
     </row>
+    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A313" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B313" s="7">
+        <v>13269</v>
+      </c>
+      <c r="C313" s="7">
+        <v>2877</v>
+      </c>
+      <c r="D313" s="3">
+        <f t="shared" ref="D313:D316" si="39">D312+C313</f>
+        <v>291285</v>
+      </c>
+      <c r="E313" s="7">
+        <v>57</v>
+      </c>
+      <c r="F313" s="7">
+        <f t="shared" ref="F313:F316" si="40">F312+E313</f>
+        <v>4651</v>
+      </c>
+      <c r="G313" s="7">
+        <v>3561</v>
+      </c>
+      <c r="H313" s="3">
+        <f t="shared" si="38"/>
+        <v>230702</v>
+      </c>
+      <c r="I313" s="3">
+        <f t="shared" si="31"/>
+        <v>55932</v>
+      </c>
+      <c r="J313" s="5">
+        <f t="shared" si="32"/>
+        <v>1.596717990971042E-2</v>
+      </c>
+      <c r="K313" s="6">
+        <f t="shared" si="33"/>
+        <v>0.79201469351322584</v>
+      </c>
+      <c r="L313" s="8">
+        <f t="shared" si="34"/>
+        <v>0.21682116210716709</v>
+      </c>
+      <c r="M313" s="3">
+        <v>49906</v>
+      </c>
+      <c r="N313" s="3">
+        <v>115610</v>
+      </c>
+      <c r="O313" s="3">
+        <v>85389</v>
+      </c>
+      <c r="P313" s="3">
+        <v>33497</v>
+      </c>
+      <c r="Q313" s="3">
+        <v>6883</v>
+      </c>
+      <c r="R313" s="3">
+        <v>29</v>
+      </c>
+      <c r="S313" s="3">
+        <v>211</v>
+      </c>
+      <c r="T313" s="3">
+        <v>929</v>
+      </c>
+      <c r="U313" s="3">
+        <v>2270</v>
+      </c>
+      <c r="V313" s="3">
+        <v>1212</v>
+      </c>
+      <c r="W313" s="3">
+        <v>237</v>
+      </c>
+      <c r="X313" s="3">
+        <v>2440</v>
+      </c>
+      <c r="Y313" s="3">
+        <v>694</v>
+      </c>
+      <c r="Z313" s="3">
+        <v>52561</v>
+      </c>
+    </row>
+    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A314" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B314" s="3">
+        <v>13111</v>
+      </c>
+      <c r="C314" s="3">
+        <v>2307</v>
+      </c>
+      <c r="D314" s="3">
+        <f t="shared" si="39"/>
+        <v>293592</v>
+      </c>
+      <c r="E314" s="3">
+        <v>38</v>
+      </c>
+      <c r="F314" s="7">
+        <f t="shared" si="40"/>
+        <v>4689</v>
+      </c>
+      <c r="G314" s="3">
+        <v>3593</v>
+      </c>
+      <c r="H314" s="3">
+        <f t="shared" si="38"/>
+        <v>234295</v>
+      </c>
+      <c r="I314" s="3">
+        <f t="shared" si="31"/>
+        <v>54608</v>
+      </c>
+      <c r="J314" s="5">
+        <f t="shared" si="32"/>
+        <v>1.5971143627891767E-2</v>
+      </c>
+      <c r="K314" s="6">
+        <f t="shared" si="33"/>
+        <v>0.79802923785389246</v>
+      </c>
+      <c r="L314" s="8">
+        <f t="shared" si="34"/>
+        <v>0.17595911829761268</v>
+      </c>
+      <c r="M314" s="3">
+        <v>50297</v>
+      </c>
+      <c r="N314" s="3">
+        <v>116492</v>
+      </c>
+      <c r="O314" s="3">
+        <v>86072</v>
+      </c>
+      <c r="P314" s="3">
+        <v>33795</v>
+      </c>
+      <c r="Q314" s="3">
+        <v>6936</v>
+      </c>
+      <c r="R314" s="3">
+        <v>29</v>
+      </c>
+      <c r="S314" s="3">
+        <v>215</v>
+      </c>
+      <c r="T314" s="3">
+        <v>936</v>
+      </c>
+      <c r="U314" s="3">
+        <v>2288</v>
+      </c>
+      <c r="V314" s="3">
+        <v>1221</v>
+      </c>
+      <c r="W314" s="3">
+        <v>233</v>
+      </c>
+      <c r="X314" s="3">
+        <v>2440</v>
+      </c>
+      <c r="Y314" s="3">
+        <v>712</v>
+      </c>
+      <c r="Z314" s="3">
+        <v>51223</v>
+      </c>
+    </row>
+    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A315" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B315" s="3">
+        <v>16130</v>
+      </c>
+      <c r="C315" s="3">
+        <v>2677</v>
+      </c>
+      <c r="D315" s="3">
+        <f t="shared" si="39"/>
+        <v>296269</v>
+      </c>
+      <c r="E315" s="3">
+        <v>49</v>
+      </c>
+      <c r="F315" s="7">
+        <f t="shared" si="40"/>
+        <v>4738</v>
+      </c>
+      <c r="G315" s="3">
+        <v>2659</v>
+      </c>
+      <c r="H315" s="3">
+        <f t="shared" si="38"/>
+        <v>236954</v>
+      </c>
+      <c r="I315" s="3">
+        <f t="shared" si="31"/>
+        <v>54577</v>
+      </c>
+      <c r="J315" s="5">
+        <f t="shared" si="32"/>
+        <v>1.5992223283569997E-2</v>
+      </c>
+      <c r="K315" s="6">
+        <f t="shared" si="33"/>
+        <v>0.79979343096982813</v>
+      </c>
+      <c r="L315" s="8">
+        <f t="shared" si="34"/>
+        <v>0.16596404215747054</v>
+      </c>
+      <c r="M315" s="3">
+        <v>50829</v>
+      </c>
+      <c r="N315" s="3">
+        <v>117464</v>
+      </c>
+      <c r="O315" s="3">
+        <v>86835</v>
+      </c>
+      <c r="P315" s="3">
+        <v>34104</v>
+      </c>
+      <c r="Q315" s="3">
+        <v>7037</v>
+      </c>
+      <c r="R315" s="3">
+        <v>29</v>
+      </c>
+      <c r="S315" s="3">
+        <v>219</v>
+      </c>
+      <c r="T315" s="3">
+        <v>940</v>
+      </c>
+      <c r="U315" s="3">
+        <v>2311</v>
+      </c>
+      <c r="V315" s="3">
+        <v>1239</v>
+      </c>
+      <c r="W315" s="3">
+        <v>233</v>
+      </c>
+      <c r="X315" s="3">
+        <v>2448</v>
+      </c>
+      <c r="Y315" s="3">
+        <v>741</v>
+      </c>
+      <c r="Z315" s="3">
+        <v>51155</v>
+      </c>
+    </row>
+    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A316" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B316" s="3">
+        <v>9663</v>
+      </c>
+      <c r="C316" s="3">
+        <v>1750</v>
+      </c>
+      <c r="D316" s="3">
+        <f t="shared" si="39"/>
+        <v>298019</v>
+      </c>
+      <c r="E316" s="3">
+        <v>49</v>
+      </c>
+      <c r="F316" s="7">
+        <f t="shared" si="40"/>
+        <v>4787</v>
+      </c>
+      <c r="G316" s="3">
+        <v>2045</v>
+      </c>
+      <c r="H316" s="3">
+        <f t="shared" si="38"/>
+        <v>238999</v>
+      </c>
+      <c r="I316" s="3">
+        <f t="shared" si="31"/>
+        <v>54233</v>
+      </c>
+      <c r="J316" s="5">
+        <f t="shared" si="32"/>
+        <v>1.6062734255198493E-2</v>
+      </c>
+      <c r="K316" s="6">
+        <f t="shared" si="33"/>
+        <v>0.80195893550411212</v>
+      </c>
+      <c r="L316" s="8">
+        <f t="shared" si="34"/>
+        <v>0.18110317706716342</v>
+      </c>
+      <c r="M316" s="3">
+        <v>51266</v>
+      </c>
+      <c r="N316" s="3">
+        <v>118078</v>
+      </c>
+      <c r="O316" s="3">
+        <v>87243</v>
+      </c>
+      <c r="P316" s="3">
+        <v>34345</v>
+      </c>
+      <c r="Q316" s="3">
+        <v>7087</v>
+      </c>
+      <c r="R316" s="3">
+        <v>29</v>
+      </c>
+      <c r="S316" s="3">
+        <v>222</v>
+      </c>
+      <c r="T316" s="3">
+        <v>946</v>
+      </c>
+      <c r="U316" s="3">
+        <v>2343</v>
+      </c>
+      <c r="V316" s="3">
+        <v>1247</v>
+      </c>
+      <c r="W316" s="3">
+        <v>233</v>
+      </c>
+      <c r="X316" s="3">
+        <v>2444</v>
+      </c>
+      <c r="Y316" s="3">
+        <v>760</v>
+      </c>
+      <c r="Z316" s="3">
+        <v>50796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
